--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
@@ -610,13 +610,13 @@
         <v>7430.1439201741</v>
       </c>
       <c r="G3" t="n">
-        <v>9402.20297403672</v>
+        <v>9936.64398519249</v>
       </c>
       <c r="H3" t="n">
-        <v>7942.81140865316</v>
+        <v>8295.54247601597</v>
       </c>
       <c r="I3" t="n">
-        <v>7002.59111124949</v>
+        <v>7301.87807749672</v>
       </c>
       <c r="J3" t="n">
         <v>13646.2208558363</v>
@@ -637,13 +637,13 @@
         <v>10150.6049214053</v>
       </c>
       <c r="P3" t="n">
-        <v>12909.3249296211</v>
+        <v>13940.9792263223</v>
       </c>
       <c r="Q3" t="n">
-        <v>10616.2139770064</v>
+        <v>11297.1058128292</v>
       </c>
       <c r="R3" t="n">
-        <v>9325.28148404427</v>
+        <v>9903.00789019696</v>
       </c>
       <c r="S3" t="n">
         <v>22933.1022847507</v>
@@ -664,13 +664,13 @@
         <v>17058.558803489</v>
       </c>
       <c r="Y3" t="n">
-        <v>21694.7147613742</v>
+        <v>23428.4572941014</v>
       </c>
       <c r="Z3" t="n">
-        <v>17841.0362534447</v>
+        <v>18985.3063250446</v>
       </c>
       <c r="AA3" t="n">
-        <v>15671.5647773073</v>
+        <v>16642.4605956345</v>
       </c>
     </row>
     <row r="4">
@@ -693,13 +693,13 @@
         <v>2563.75572964474</v>
       </c>
       <c r="G4" t="n">
-        <v>3244.21061084973</v>
+        <v>3428.61837188751</v>
       </c>
       <c r="H4" t="n">
-        <v>2740.65058189949</v>
+        <v>2862.35970418442</v>
       </c>
       <c r="I4" t="n">
-        <v>2416.22952081452</v>
+        <v>2519.49786699567</v>
       </c>
       <c r="J4" t="n">
         <v>4708.600167509</v>
@@ -720,13 +720,13 @@
         <v>3502.44514859989</v>
       </c>
       <c r="P4" t="n">
-        <v>4454.33575846351</v>
+        <v>4810.30593112719</v>
       </c>
       <c r="Q4" t="n">
-        <v>3663.1025863153</v>
+        <v>3898.04290027333</v>
       </c>
       <c r="R4" t="n">
-        <v>3217.66901046895</v>
+        <v>3417.01230716061</v>
       </c>
       <c r="S4" t="n">
         <v>7913.01931869994</v>
@@ -747,13 +747,13 @@
         <v>5886.02029002176</v>
       </c>
       <c r="Y4" t="n">
-        <v>7485.71627549014</v>
+        <v>8083.94053598386</v>
       </c>
       <c r="Z4" t="n">
-        <v>6156.0125091758</v>
+        <v>6550.84052110166</v>
       </c>
       <c r="AA4" t="n">
-        <v>5407.44088162679</v>
+        <v>5742.44646750327</v>
       </c>
     </row>
     <row r="5">
@@ -776,13 +776,13 @@
         <v>390.884123168935</v>
       </c>
       <c r="G5" t="n">
-        <v>501.859687467651</v>
+        <v>563.714177164567</v>
       </c>
       <c r="H5" t="n">
-        <v>391.586500158167</v>
+        <v>432.410463358132</v>
       </c>
       <c r="I5" t="n">
-        <v>341.400531411402</v>
+        <v>376.039045641675</v>
       </c>
       <c r="J5" t="n">
         <v>1347.16511820635</v>
@@ -803,13 +803,13 @@
         <v>964.368988352528</v>
       </c>
       <c r="P5" t="n">
-        <v>1238.16213146351</v>
+        <v>1390.76631290348</v>
       </c>
       <c r="Q5" t="n">
-        <v>966.101856346901</v>
+        <v>1066.82061609728</v>
       </c>
       <c r="R5" t="n">
-        <v>842.28564320055</v>
+        <v>927.743984806935</v>
       </c>
       <c r="S5" t="n">
         <v>2412.68520237153</v>
@@ -830,13 +830,13 @@
         <v>1727.12220378895</v>
       </c>
       <c r="Y5" t="n">
-        <v>2217.46793495973</v>
+        <v>2490.77210933625</v>
       </c>
       <c r="Z5" t="n">
-        <v>1730.2256577837</v>
+        <v>1910.60641287221</v>
       </c>
       <c r="AA5" t="n">
-        <v>1508.47886428773</v>
+        <v>1661.52920193858</v>
       </c>
     </row>
     <row r="6">
@@ -859,13 +859,13 @@
         <v>273.618886218255</v>
       </c>
       <c r="G6" t="n">
-        <v>351.301781227356</v>
+        <v>394.599924015197</v>
       </c>
       <c r="H6" t="n">
-        <v>274.110550110717</v>
+        <v>302.687324350692</v>
       </c>
       <c r="I6" t="n">
-        <v>238.980371987982</v>
+        <v>263.227331949173</v>
       </c>
       <c r="J6" t="n">
         <v>943.015582744444</v>
@@ -886,13 +886,13 @@
         <v>675.05829184677</v>
       </c>
       <c r="P6" t="n">
-        <v>866.713492024458</v>
+        <v>973.536419032438</v>
       </c>
       <c r="Q6" t="n">
-        <v>676.271299442831</v>
+        <v>746.774431268098</v>
       </c>
       <c r="R6" t="n">
-        <v>589.599950240385</v>
+        <v>649.420789364854</v>
       </c>
       <c r="S6" t="n">
         <v>1688.87964166007</v>
@@ -913,13 +913,13 @@
         <v>1208.98554265226</v>
       </c>
       <c r="Y6" t="n">
-        <v>1552.22755447181</v>
+        <v>1743.54047653538</v>
       </c>
       <c r="Z6" t="n">
-        <v>1211.15796044859</v>
+        <v>1337.42448901055</v>
       </c>
       <c r="AA6" t="n">
-        <v>1055.93520500141</v>
+        <v>1163.07044135701</v>
       </c>
     </row>
     <row r="7">
@@ -942,13 +942,13 @@
         <v>942.465052529543</v>
       </c>
       <c r="G7" t="n">
-        <v>1210.039468672</v>
+        <v>1359.17751605234</v>
       </c>
       <c r="H7" t="n">
-        <v>944.15856149247</v>
+        <v>1042.5896727635</v>
       </c>
       <c r="I7" t="n">
-        <v>823.15461462527</v>
+        <v>906.671921158262</v>
       </c>
       <c r="J7" t="n">
         <v>3248.16478500864</v>
@@ -969,13 +969,13 @@
         <v>2325.20078302776</v>
       </c>
       <c r="P7" t="n">
-        <v>2985.34647252869</v>
+        <v>3353.29211000062</v>
       </c>
       <c r="Q7" t="n">
-        <v>2329.37892030308</v>
+        <v>2572.22304103456</v>
       </c>
       <c r="R7" t="n">
-        <v>2030.84427305022</v>
+        <v>2236.8938300345</v>
       </c>
       <c r="S7" t="n">
         <v>5817.25209905136</v>
@@ -996,13 +996,13 @@
         <v>4164.28353580224</v>
       </c>
       <c r="Y7" t="n">
-        <v>5346.56157651401</v>
+        <v>6005.5283080663</v>
       </c>
       <c r="Z7" t="n">
-        <v>4171.76630821181</v>
+        <v>4606.68435103632</v>
       </c>
       <c r="AA7" t="n">
-        <v>3637.11015056041</v>
+        <v>4006.13152022969</v>
       </c>
     </row>
     <row r="8">
@@ -1025,13 +1025,13 @@
         <v>1566.73961256067</v>
       </c>
       <c r="G8" t="n">
-        <v>1982.57315107484</v>
+        <v>2095.26678282014</v>
       </c>
       <c r="H8" t="n">
-        <v>1674.84202227191</v>
+        <v>1749.21981922381</v>
       </c>
       <c r="I8" t="n">
-        <v>1476.58470716443</v>
+        <v>1539.6931409418</v>
       </c>
       <c r="J8" t="n">
         <v>2877.47788014439</v>
@@ -1052,13 +1052,13 @@
         <v>2140.3831463666</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.09407461659</v>
+        <v>2939.63140235551</v>
       </c>
       <c r="Q8" t="n">
-        <v>2238.56269163713</v>
+        <v>2382.13732794481</v>
       </c>
       <c r="R8" t="n">
-        <v>1966.35328417547</v>
+        <v>2088.17418770926</v>
       </c>
       <c r="S8" t="n">
         <v>4835.73402809441</v>
@@ -1079,13 +1079,13 @@
         <v>3597.01239945774</v>
       </c>
       <c r="Y8" t="n">
-        <v>4574.60439057731</v>
+        <v>4940.18588310125</v>
       </c>
       <c r="Z8" t="n">
-        <v>3762.00764449632</v>
+        <v>4003.29142956212</v>
       </c>
       <c r="AA8" t="n">
-        <v>3304.54720543859</v>
+        <v>3509.272841252</v>
       </c>
     </row>
     <row r="9">
@@ -1108,13 +1108,13 @@
         <v>469.060947802722</v>
       </c>
       <c r="G9" t="n">
-        <v>602.231624961181</v>
+        <v>676.45701259748</v>
       </c>
       <c r="H9" t="n">
-        <v>469.903800189801</v>
+        <v>518.892556029758</v>
       </c>
       <c r="I9" t="n">
-        <v>409.680637693683</v>
+        <v>451.24685477001</v>
       </c>
       <c r="J9" t="n">
         <v>1616.59814184762</v>
@@ -1135,13 +1135,13 @@
         <v>1157.24278602303</v>
       </c>
       <c r="P9" t="n">
-        <v>1485.79455775621</v>
+        <v>1668.91957548418</v>
       </c>
       <c r="Q9" t="n">
-        <v>1159.32222761628</v>
+        <v>1280.18473931674</v>
       </c>
       <c r="R9" t="n">
-        <v>1010.74277184066</v>
+        <v>1113.29278176832</v>
       </c>
       <c r="S9" t="n">
         <v>2895.22224284584</v>
@@ -1162,13 +1162,13 @@
         <v>2072.54664454674</v>
       </c>
       <c r="Y9" t="n">
-        <v>2660.96152195167</v>
+        <v>2988.9265312035</v>
       </c>
       <c r="Z9" t="n">
-        <v>2076.27078934044</v>
+        <v>2292.72769544665</v>
       </c>
       <c r="AA9" t="n">
-        <v>1810.17463714527</v>
+        <v>1993.8350423263</v>
       </c>
     </row>
     <row r="10">
@@ -1191,13 +1191,13 @@
         <v>65.1473538614892</v>
       </c>
       <c r="G10" t="n">
-        <v>83.6432812446085</v>
+        <v>93.9523628607611</v>
       </c>
       <c r="H10" t="n">
-        <v>65.2644166930279</v>
+        <v>72.0684105596886</v>
       </c>
       <c r="I10" t="n">
-        <v>56.9000885685671</v>
+        <v>62.6731742736126</v>
       </c>
       <c r="J10" t="n">
         <v>224.527519701058</v>
@@ -1218,13 +1218,13 @@
         <v>160.728164725421</v>
       </c>
       <c r="P10" t="n">
-        <v>206.360355243918</v>
+        <v>231.794385483914</v>
       </c>
       <c r="Q10" t="n">
-        <v>161.016976057817</v>
+        <v>177.803436016214</v>
       </c>
       <c r="R10" t="n">
-        <v>140.380940533425</v>
+        <v>154.623997467822</v>
       </c>
       <c r="S10" t="n">
         <v>402.114200395255</v>
@@ -1245,13 +1245,13 @@
         <v>287.853700631492</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.577989159955</v>
+        <v>415.128684889376</v>
       </c>
       <c r="Z10" t="n">
-        <v>288.37094296395</v>
+        <v>318.434402145368</v>
       </c>
       <c r="AA10" t="n">
-        <v>251.413144047955</v>
+        <v>276.92153365643</v>
       </c>
     </row>
     <row r="11">
@@ -1274,13 +1274,13 @@
         <v>37384.5587201512</v>
       </c>
       <c r="G11" t="n">
-        <v>48017.2914150249</v>
+        <v>54021.3921509263</v>
       </c>
       <c r="H11" t="n">
-        <v>37383.0072729326</v>
+        <v>41345.7137586274</v>
       </c>
       <c r="I11" t="n">
-        <v>32581.2781314301</v>
+        <v>35943.5745435348</v>
       </c>
       <c r="J11" t="n">
         <v>71510.1964879334</v>
@@ -1301,13 +1301,13 @@
         <v>51110.3978932147</v>
       </c>
       <c r="P11" t="n">
-        <v>65646.9663945372</v>
+        <v>73855.4885252919</v>
       </c>
       <c r="Q11" t="n">
-        <v>51108.2768280646</v>
+        <v>56525.9014343627</v>
       </c>
       <c r="R11" t="n">
-        <v>44543.5801886109</v>
+        <v>49140.3525818335</v>
       </c>
       <c r="S11" t="n">
         <v>98589.1392276515</v>
@@ -1328,13 +1328,13 @@
         <v>70464.4985100141</v>
       </c>
       <c r="Y11" t="n">
-        <v>90505.6653121639</v>
+        <v>101822.528793846</v>
       </c>
       <c r="Z11" t="n">
-        <v>70461.5742558845</v>
+        <v>77930.704153795</v>
       </c>
       <c r="AA11" t="n">
-        <v>61411.0077246681</v>
+        <v>67748.4512744103</v>
       </c>
     </row>
     <row r="12">
@@ -1357,13 +1357,13 @@
         <v>26118.5573902636</v>
       </c>
       <c r="G12" t="n">
-        <v>33547.069284312</v>
+        <v>37741.8078345636</v>
       </c>
       <c r="H12" t="n">
-        <v>26117.4734784935</v>
+        <v>28886.0009216596</v>
       </c>
       <c r="I12" t="n">
-        <v>22762.7665500623</v>
+        <v>25111.8201382032</v>
       </c>
       <c r="J12" t="n">
         <v>49960.2840022921</v>
@@ -1384,13 +1384,13 @@
         <v>35708.054510045</v>
       </c>
       <c r="P12" t="n">
-        <v>45863.9641063415</v>
+        <v>51598.8119606724</v>
       </c>
       <c r="Q12" t="n">
-        <v>35706.5726372144</v>
+        <v>39491.5722210728</v>
       </c>
       <c r="R12" t="n">
-        <v>31120.1762265803</v>
+        <v>34331.6910250056</v>
       </c>
       <c r="S12" t="n">
         <v>68878.868151147</v>
@@ -1411,13 +1411,13 @@
         <v>49229.7117129783</v>
       </c>
       <c r="Y12" t="n">
-        <v>63231.3846819746</v>
+        <v>71137.861538816</v>
       </c>
       <c r="Z12" t="n">
-        <v>49227.6686957026</v>
+        <v>54445.9434212179</v>
       </c>
       <c r="AA12" t="n">
-        <v>42904.5302275051</v>
+        <v>47332.1572673363</v>
       </c>
     </row>
     <row r="13">
@@ -1440,13 +1440,13 @@
         <v>5003.07373626853</v>
       </c>
       <c r="G13" t="n">
-        <v>6432.24995331277</v>
+        <v>7264.81960720597</v>
       </c>
       <c r="H13" t="n">
-        <v>4980.24300848525</v>
+        <v>5529.73898005476</v>
       </c>
       <c r="I13" t="n">
-        <v>4337.01801315397</v>
+        <v>4803.25701933416</v>
       </c>
       <c r="J13" t="n">
         <v>15899.4448888195</v>
@@ -1467,13 +1467,13 @@
         <v>11320.1572986623</v>
       </c>
       <c r="P13" t="n">
-        <v>14553.8692999797</v>
+        <v>16437.6751243554</v>
       </c>
       <c r="Q13" t="n">
-        <v>11268.4995691597</v>
+        <v>12511.8114132476</v>
       </c>
       <c r="R13" t="n">
-        <v>9813.11263916169</v>
+        <v>10868.0439008121</v>
       </c>
       <c r="S13" t="n">
         <v>21072.9581202869</v>
@@ -1494,13 +1494,13 @@
         <v>15003.6181978603</v>
       </c>
       <c r="Y13" t="n">
-        <v>19289.5462949319</v>
+        <v>21786.3228504289</v>
       </c>
       <c r="Z13" t="n">
-        <v>14935.1515829559</v>
+        <v>16583.0241095839</v>
       </c>
       <c r="AA13" t="n">
-        <v>13006.1969534627</v>
+        <v>14404.391824541</v>
       </c>
     </row>
     <row r="14">
@@ -1523,13 +1523,13 @@
         <v>5731.1329740091</v>
       </c>
       <c r="G14" t="n">
-        <v>7368.28632711575</v>
+        <v>8322.01350526952</v>
       </c>
       <c r="H14" t="n">
-        <v>5704.97986419766</v>
+        <v>6334.43980177915</v>
       </c>
       <c r="I14" t="n">
-        <v>4968.15123148608</v>
+        <v>5502.23845125219</v>
       </c>
       <c r="J14" t="n">
         <v>18213.1700778642</v>
@@ -1550,13 +1550,13 @@
         <v>12967.493621975</v>
       </c>
       <c r="P14" t="n">
-        <v>16671.7831160216</v>
+        <v>18829.7248626012</v>
       </c>
       <c r="Q14" t="n">
-        <v>12908.3185363135</v>
+        <v>14332.5600890561</v>
       </c>
       <c r="R14" t="n">
-        <v>11241.1402247113</v>
+        <v>12449.5876027959</v>
       </c>
       <c r="S14" t="n">
         <v>24139.5453094332</v>
@@ -1577,13 +1577,13 @@
         <v>17186.980547549</v>
       </c>
       <c r="Y14" t="n">
-        <v>22096.6071363586</v>
+        <v>24956.720578663</v>
       </c>
       <c r="Z14" t="n">
-        <v>17108.5505073413</v>
+        <v>18996.2253792622</v>
       </c>
       <c r="AA14" t="n">
-        <v>14898.8897937054</v>
+        <v>16500.5533213959</v>
       </c>
     </row>
     <row r="15">
@@ -1606,13 +1606,13 @@
         <v>4349.68724086032</v>
       </c>
       <c r="G15" t="n">
-        <v>5592.21731015625</v>
+        <v>6316.05585253355</v>
       </c>
       <c r="H15" t="n">
-        <v>4329.83813797412</v>
+        <v>4807.57157594313</v>
       </c>
       <c r="I15" t="n">
-        <v>3770.61640695849</v>
+        <v>4175.96599068978</v>
       </c>
       <c r="J15" t="n">
         <v>13823.0248473692</v>
@@ -1633,13 +1633,13 @@
         <v>9841.77854697129</v>
       </c>
       <c r="P15" t="n">
-        <v>12653.1774137884</v>
+        <v>14290.9638208016</v>
       </c>
       <c r="Q15" t="n">
-        <v>9796.86716273956</v>
+        <v>10877.8061913683</v>
       </c>
       <c r="R15" t="n">
-        <v>8531.54942136073</v>
+        <v>9448.70980928812</v>
       </c>
       <c r="S15" t="n">
         <v>18320.8926941301</v>
@@ -1660,13 +1660,13 @@
         <v>13044.1904481398</v>
       </c>
       <c r="Y15" t="n">
-        <v>16770.389129549</v>
+        <v>18941.0941199625</v>
       </c>
       <c r="Z15" t="n">
-        <v>12984.6653687639</v>
+        <v>14417.3306624368</v>
       </c>
       <c r="AA15" t="n">
-        <v>11307.626455809</v>
+        <v>12523.2212504405</v>
       </c>
     </row>
     <row r="16">
@@ -1689,13 +1689,13 @@
         <v>13702.4482179892</v>
       </c>
       <c r="G16" t="n">
-        <v>17616.6845736253</v>
+        <v>19896.9313122731</v>
       </c>
       <c r="H16" t="n">
-        <v>13639.9192844335</v>
+        <v>15144.882131941</v>
       </c>
       <c r="I16" t="n">
-        <v>11878.250827071</v>
+        <v>13155.1890007137</v>
       </c>
       <c r="J16" t="n">
         <v>43545.494583558</v>
@@ -1716,13 +1716,13 @@
         <v>31003.7143926048</v>
       </c>
       <c r="P16" t="n">
-        <v>39860.2241275565</v>
+        <v>45019.6027659586</v>
       </c>
       <c r="Q16" t="n">
-        <v>30862.2338946388</v>
+        <v>34267.4237959842</v>
       </c>
       <c r="R16" t="n">
-        <v>26876.2114818831</v>
+        <v>29765.4635193883</v>
       </c>
       <c r="S16" t="n">
         <v>57714.7435085471</v>
@@ -1743,13 +1743,13 @@
         <v>41091.9990941399</v>
       </c>
       <c r="Y16" t="n">
-        <v>52830.3245540299</v>
+        <v>59668.5110903539</v>
       </c>
       <c r="Z16" t="n">
-        <v>40904.4823204837</v>
+        <v>45417.6854344575</v>
       </c>
       <c r="AA16" t="n">
-        <v>35621.4498650807</v>
+        <v>39450.8343254221</v>
       </c>
     </row>
     <row r="17">
@@ -1772,13 +1772,13 @@
         <v>3546.95526078739</v>
       </c>
       <c r="G17" t="n">
-        <v>4560.17720570682</v>
+        <v>5150.43181107886</v>
       </c>
       <c r="H17" t="n">
-        <v>3530.76929706044</v>
+        <v>3920.33733660599</v>
       </c>
       <c r="I17" t="n">
-        <v>3074.75157648976</v>
+        <v>3405.2941554981</v>
       </c>
       <c r="J17" t="n">
         <v>11271.9945107303</v>
@@ -1799,13 +1799,13 @@
         <v>8025.48465203667</v>
       </c>
       <c r="P17" t="n">
-        <v>10318.0416678961</v>
+        <v>11653.5756478639</v>
       </c>
       <c r="Q17" t="n">
-        <v>7988.861634852</v>
+        <v>8870.31406163078</v>
       </c>
       <c r="R17" t="n">
-        <v>6957.05746806239</v>
+        <v>7704.95649684439</v>
       </c>
       <c r="S17" t="n">
         <v>14939.7837419945</v>
@@ -1826,13 +1826,13 @@
         <v>10636.8934984831</v>
       </c>
       <c r="Y17" t="n">
-        <v>13675.4246120786</v>
+        <v>15445.5273939608</v>
       </c>
       <c r="Z17" t="n">
-        <v>10588.3537341851</v>
+        <v>11756.6215702274</v>
       </c>
       <c r="AA17" t="n">
-        <v>9220.81127297729</v>
+        <v>10212.0688308313</v>
       </c>
     </row>
     <row r="18">
@@ -1855,13 +1855,13 @@
         <v>11294.2522777704</v>
       </c>
       <c r="G18" t="n">
-        <v>14520.564260277</v>
+        <v>16400.059187909</v>
       </c>
       <c r="H18" t="n">
-        <v>11242.7127616924</v>
+        <v>12483.1794139296</v>
       </c>
       <c r="I18" t="n">
-        <v>9790.65633566475</v>
+        <v>10843.1734951387</v>
       </c>
       <c r="J18" t="n">
         <v>35892.4035736411</v>
@@ -1882,13 +1882,13 @@
         <v>25554.832707801</v>
       </c>
       <c r="P18" t="n">
-        <v>32854.8168898797</v>
+        <v>37107.4382471457</v>
       </c>
       <c r="Q18" t="n">
-        <v>25438.2173109761</v>
+        <v>28244.9474067717</v>
       </c>
       <c r="R18" t="n">
-        <v>22152.7356219882</v>
+        <v>24534.2035820571</v>
       </c>
       <c r="S18" t="n">
         <v>47571.4166521403</v>
@@ -1909,13 +1909,13 @@
         <v>33870.1082451698</v>
       </c>
       <c r="Y18" t="n">
-        <v>43545.4310016187</v>
+        <v>49181.8109123489</v>
       </c>
       <c r="Z18" t="n">
-        <v>33715.5474167474</v>
+        <v>37435.5581578294</v>
       </c>
       <c r="AA18" t="n">
-        <v>29361.0043165856</v>
+        <v>32517.3770665945</v>
       </c>
     </row>
     <row r="19">
@@ -1938,13 +1938,13 @@
         <v>32.1284180462631</v>
       </c>
       <c r="G19" t="n">
-        <v>40.7873946918148</v>
+        <v>43.7127979837494</v>
       </c>
       <c r="H19" t="n">
-        <v>33.8668348818969</v>
+        <v>35.7976010545737</v>
       </c>
       <c r="I19" t="n">
-        <v>29.7880954127154</v>
+        <v>31.4263212561988</v>
       </c>
       <c r="J19" t="n">
         <v>97.0123505213027</v>
@@ -1965,13 +1965,13 @@
         <v>72.6929506513802</v>
       </c>
       <c r="P19" t="n">
-        <v>92.2845334389355</v>
+        <v>98.9034773542497</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.6262488630224</v>
+        <v>80.9947518471298</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3977955191289</v>
+        <v>71.1044041117048</v>
       </c>
       <c r="S19" t="n">
         <v>128.579555752464</v>
@@ -1992,13 +1992,13 @@
         <v>96.3467769914284</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.313336896173</v>
+        <v>131.08604329498</v>
       </c>
       <c r="Z19" t="n">
-        <v>101.559945562</v>
+        <v>107.349931785213</v>
       </c>
       <c r="AA19" t="n">
-        <v>89.3286118723825</v>
+        <v>94.2413274557146</v>
       </c>
     </row>
     <row r="20">
@@ -2021,13 +2021,13 @@
         <v>3397.60977612266</v>
       </c>
       <c r="G20" t="n">
-        <v>4368.1697444139</v>
+        <v>4933.57152429659</v>
       </c>
       <c r="H20" t="n">
-        <v>3382.10532665789</v>
+        <v>3755.27050138047</v>
       </c>
       <c r="I20" t="n">
-        <v>2945.2883522165</v>
+        <v>3261.91334895081</v>
       </c>
       <c r="J20" t="n">
         <v>10797.3842155416</v>
@@ -2048,13 +2048,13 @@
         <v>7687.56950879302</v>
       </c>
       <c r="P20" t="n">
-        <v>9883.5978081952</v>
+        <v>11162.8987784802</v>
       </c>
       <c r="Q20" t="n">
-        <v>7652.48851338455</v>
+        <v>8496.82715377264</v>
       </c>
       <c r="R20" t="n">
-        <v>6664.12873256503</v>
+        <v>7380.53727592462</v>
       </c>
       <c r="S20" t="n">
         <v>14310.7402160158</v>
@@ -2075,13 +2075,13 @@
         <v>10189.0242985469</v>
       </c>
       <c r="Y20" t="n">
-        <v>13099.6172599911</v>
+        <v>14795.1893984256</v>
       </c>
       <c r="Z20" t="n">
-        <v>10142.5283137984</v>
+        <v>11261.6059251652</v>
       </c>
       <c r="AA20" t="n">
-        <v>8832.5665877993</v>
+        <v>9782.08698532265</v>
       </c>
     </row>
     <row r="21">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETInc_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETInc_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETInc_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETDec_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETDec_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETDec_2015</t>
+    <t xml:space="preserve">MI_SA_ET15_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET15_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET15_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETLow_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETLow_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETLow_2015</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070</t>
@@ -50,22 +50,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETInc_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETInc_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETInc_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETDec_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETDec_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETDec_2070</t>
+    <t xml:space="preserve">MI_SA_ET15_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET15_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET15_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETLow_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETLow_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETLow_2070</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150</t>
@@ -77,22 +77,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETInc_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETInc_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETInc_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETDec_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETDec_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETDec_2150</t>
+    <t xml:space="preserve">MI_SA_ET15_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET15_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET15_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_ETLow_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ETLow_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ETLow_2150</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETLow_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2015</t>
+    <t xml:space="preserve">MI_SA_HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_LowET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2015</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070</t>
@@ -50,22 +50,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETLow_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2070</t>
+    <t xml:space="preserve">MI_SA_HighET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_LowET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2070</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150</t>
@@ -77,22 +77,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_ETLow_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2150</t>
+    <t xml:space="preserve">MI_SA_HighET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_LowET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2150</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
@@ -601,13 +601,13 @@
         <v>7216.3675157118</v>
       </c>
       <c r="D3" t="n">
-        <v>10165.6901328307</v>
+        <v>10038.4422730317</v>
       </c>
       <c r="E3" t="n">
-        <v>8446.71293345717</v>
+        <v>8362.72934598984</v>
       </c>
       <c r="F3" t="n">
-        <v>7430.1439201741</v>
+        <v>7358.88511868667</v>
       </c>
       <c r="G3" t="n">
         <v>9936.64398519249</v>
@@ -628,13 +628,13 @@
         <v>9737.94320272476</v>
       </c>
       <c r="M3" t="n">
-        <v>14383.1167820514</v>
+        <v>14137.4848066464</v>
       </c>
       <c r="N3" t="n">
-        <v>11588.9165996104</v>
+        <v>11426.7994958431</v>
       </c>
       <c r="O3" t="n">
-        <v>10150.6049214053</v>
+        <v>10013.0510151784</v>
       </c>
       <c r="P3" t="n">
         <v>13940.9792263223</v>
@@ -655,13 +655,13 @@
         <v>16365.0617903981</v>
       </c>
       <c r="V3" t="n">
-        <v>24171.4898081273</v>
+        <v>23758.6939670018</v>
       </c>
       <c r="W3" t="n">
-        <v>19475.7077843017</v>
+        <v>19203.2625291589</v>
       </c>
       <c r="X3" t="n">
-        <v>17058.558803489</v>
+        <v>16827.3931324587</v>
       </c>
       <c r="Y3" t="n">
         <v>23428.4572941014</v>
@@ -684,13 +684,13 @@
         <v>2489.99262522963</v>
       </c>
       <c r="D4" t="n">
-        <v>3507.65026947512</v>
+        <v>3463.74365970422</v>
       </c>
       <c r="E4" t="n">
-        <v>2914.52075659225</v>
+        <v>2885.54239414346</v>
       </c>
       <c r="F4" t="n">
-        <v>2563.75572964474</v>
+        <v>2539.16802817304</v>
       </c>
       <c r="G4" t="n">
         <v>3428.61837188751</v>
@@ -711,13 +711,13 @@
         <v>3360.05707953442</v>
       </c>
       <c r="M4" t="n">
-        <v>4962.86457655449</v>
+        <v>4878.10977353932</v>
       </c>
       <c r="N4" t="n">
-        <v>3998.73160625534</v>
+        <v>3942.79343626534</v>
       </c>
       <c r="O4" t="n">
-        <v>3502.44514859989</v>
+        <v>3454.9824589114</v>
       </c>
       <c r="P4" t="n">
         <v>4810.30593112719</v>
@@ -738,13 +738,13 @@
         <v>5646.73058582428</v>
       </c>
       <c r="V4" t="n">
-        <v>8340.32236190974</v>
+        <v>8197.88801417314</v>
       </c>
       <c r="W4" t="n">
-        <v>6720.05252621274</v>
+        <v>6626.04585670658</v>
       </c>
       <c r="X4" t="n">
-        <v>5886.02029002176</v>
+        <v>5806.25705528927</v>
       </c>
       <c r="Y4" t="n">
         <v>8083.94053598386</v>
@@ -767,13 +767,13 @@
         <v>366.142327290169</v>
       </c>
       <c r="D5" t="n">
-        <v>590.223244177531</v>
+        <v>575.495984725884</v>
       </c>
       <c r="E5" t="n">
-        <v>449.906447586688</v>
+        <v>440.186456348601</v>
       </c>
       <c r="F5" t="n">
-        <v>390.884123168935</v>
+        <v>382.636857876013</v>
       </c>
       <c r="G5" t="n">
         <v>563.714177164567</v>
@@ -794,13 +794,13 @@
         <v>903.327315776539</v>
       </c>
       <c r="M5" t="n">
-        <v>1456.16810494919</v>
+        <v>1419.83377603491</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.98579884745</v>
+        <v>1086.00514176402</v>
       </c>
       <c r="O5" t="n">
-        <v>964.368988352528</v>
+        <v>944.021764160532</v>
       </c>
       <c r="P5" t="n">
         <v>1390.76631290348</v>
@@ -821,13 +821,13 @@
         <v>1617.80053403834</v>
       </c>
       <c r="V5" t="n">
-        <v>2607.90246978334</v>
+        <v>2542.83004731273</v>
       </c>
       <c r="W5" t="n">
-        <v>1987.91245076728</v>
+        <v>1944.96465193669</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.12220378895</v>
+        <v>1690.68164720541</v>
       </c>
       <c r="Y5" t="n">
         <v>2490.77210933625</v>
@@ -850,13 +850,13 @@
         <v>256.299629103118</v>
       </c>
       <c r="D6" t="n">
-        <v>413.156270924271</v>
+        <v>402.847189308119</v>
       </c>
       <c r="E6" t="n">
-        <v>314.934513310682</v>
+        <v>308.130519444021</v>
       </c>
       <c r="F6" t="n">
-        <v>273.618886218255</v>
+        <v>267.845800513209</v>
       </c>
       <c r="G6" t="n">
         <v>394.599924015197</v>
@@ -877,13 +877,13 @@
         <v>632.329121043577</v>
       </c>
       <c r="M6" t="n">
-        <v>1019.31767346443</v>
+        <v>993.883643224435</v>
       </c>
       <c r="N6" t="n">
-        <v>776.990059193212</v>
+        <v>760.203599234816</v>
       </c>
       <c r="O6" t="n">
-        <v>675.05829184677</v>
+        <v>660.815234912372</v>
       </c>
       <c r="P6" t="n">
         <v>973.536419032438</v>
@@ -904,13 +904,13 @@
         <v>1132.46037382684</v>
       </c>
       <c r="V6" t="n">
-        <v>1825.53172884834</v>
+        <v>1779.98103311891</v>
       </c>
       <c r="W6" t="n">
-        <v>1391.5387155371</v>
+        <v>1361.47525635568</v>
       </c>
       <c r="X6" t="n">
-        <v>1208.98554265226</v>
+        <v>1183.47715304379</v>
       </c>
       <c r="Y6" t="n">
         <v>1743.54047653538</v>
@@ -933,13 +933,13 @@
         <v>882.809833577407</v>
       </c>
       <c r="D7" t="n">
-        <v>1423.09382207249</v>
+        <v>1387.58476317241</v>
       </c>
       <c r="E7" t="n">
-        <v>1084.77443473679</v>
+        <v>1061.33845586274</v>
       </c>
       <c r="F7" t="n">
-        <v>942.465052529543</v>
+        <v>922.579979545498</v>
       </c>
       <c r="G7" t="n">
         <v>1359.17751605234</v>
@@ -960,13 +960,13 @@
         <v>2178.02252803899</v>
       </c>
       <c r="M7" t="n">
-        <v>3510.98309748859</v>
+        <v>3423.37699332861</v>
       </c>
       <c r="N7" t="n">
-        <v>2676.29909277662</v>
+        <v>2618.47906403103</v>
       </c>
       <c r="O7" t="n">
-        <v>2325.20078302776</v>
+        <v>2276.14136469817</v>
       </c>
       <c r="P7" t="n">
         <v>3353.29211000062</v>
@@ -987,13 +987,13 @@
         <v>3900.69684318133</v>
       </c>
       <c r="V7" t="n">
-        <v>6287.94262158871</v>
+        <v>6131.04578074293</v>
       </c>
       <c r="W7" t="n">
-        <v>4793.07779796111</v>
+        <v>4689.5258830029</v>
       </c>
       <c r="X7" t="n">
-        <v>4164.28353580224</v>
+        <v>4076.4213049286</v>
       </c>
       <c r="Y7" t="n">
         <v>6005.5283080663</v>
@@ -1016,13 +1016,13 @@
         <v>1521.66215986255</v>
       </c>
       <c r="D8" t="n">
-        <v>2143.56405356813</v>
+        <v>2116.73223648592</v>
       </c>
       <c r="E8" t="n">
-        <v>1781.09601791749</v>
+        <v>1763.38701864322</v>
       </c>
       <c r="F8" t="n">
-        <v>1566.73961256067</v>
+        <v>1551.71379499463</v>
       </c>
       <c r="G8" t="n">
         <v>2095.26678282014</v>
@@ -1043,13 +1043,13 @@
         <v>2053.36821527104</v>
       </c>
       <c r="M8" t="n">
-        <v>3032.86168567219</v>
+        <v>2981.06708382959</v>
       </c>
       <c r="N8" t="n">
-        <v>2443.66931493382</v>
+        <v>2409.48487771771</v>
       </c>
       <c r="O8" t="n">
-        <v>2140.3831463666</v>
+        <v>2111.37816933475</v>
       </c>
       <c r="P8" t="n">
         <v>2939.63140235551</v>
@@ -1070,13 +1070,13 @@
         <v>3450.77980244817</v>
       </c>
       <c r="V8" t="n">
-        <v>5096.8636656115</v>
+        <v>5009.82045310581</v>
       </c>
       <c r="W8" t="n">
-        <v>4106.69876601889</v>
+        <v>4049.25024576513</v>
       </c>
       <c r="X8" t="n">
-        <v>3597.01239945774</v>
+        <v>3548.26820045455</v>
       </c>
       <c r="Y8" t="n">
         <v>4940.18588310125</v>
@@ -1099,13 +1099,13 @@
         <v>439.370792748203</v>
       </c>
       <c r="D9" t="n">
-        <v>708.267893013037</v>
+        <v>690.595181671061</v>
       </c>
       <c r="E9" t="n">
-        <v>539.887737104026</v>
+        <v>528.223747618322</v>
       </c>
       <c r="F9" t="n">
-        <v>469.060947802722</v>
+        <v>459.164229451216</v>
       </c>
       <c r="G9" t="n">
         <v>676.45701259748</v>
@@ -1126,13 +1126,13 @@
         <v>1083.99277893185</v>
       </c>
       <c r="M9" t="n">
-        <v>1747.40172593902</v>
+        <v>1703.80053124189</v>
       </c>
       <c r="N9" t="n">
-        <v>1331.98295861694</v>
+        <v>1303.20617011683</v>
       </c>
       <c r="O9" t="n">
-        <v>1157.24278602303</v>
+        <v>1132.82611699264</v>
       </c>
       <c r="P9" t="n">
         <v>1668.91957548418</v>
@@ -1153,13 +1153,13 @@
         <v>1941.36064084601</v>
       </c>
       <c r="V9" t="n">
-        <v>3129.48296374</v>
+        <v>3051.39605677528</v>
       </c>
       <c r="W9" t="n">
-        <v>2385.49494092074</v>
+        <v>2333.95758232402</v>
       </c>
       <c r="X9" t="n">
-        <v>2072.54664454674</v>
+        <v>2028.81797664649</v>
       </c>
       <c r="Y9" t="n">
         <v>2988.9265312035</v>
@@ -1182,13 +1182,13 @@
         <v>61.0237212150281</v>
       </c>
       <c r="D10" t="n">
-        <v>98.3705406962551</v>
+        <v>95.915997454314</v>
       </c>
       <c r="E10" t="n">
-        <v>74.9844079311147</v>
+        <v>73.3644093914336</v>
       </c>
       <c r="F10" t="n">
-        <v>65.1473538614892</v>
+        <v>63.7728096460022</v>
       </c>
       <c r="G10" t="n">
         <v>93.9523628607611</v>
@@ -1209,13 +1209,13 @@
         <v>150.554552629423</v>
       </c>
       <c r="M10" t="n">
-        <v>242.694684158198</v>
+        <v>236.638962672484</v>
       </c>
       <c r="N10" t="n">
-        <v>184.997633141241</v>
+        <v>181.00085696067</v>
       </c>
       <c r="O10" t="n">
-        <v>160.728164725421</v>
+        <v>157.336960693422</v>
       </c>
       <c r="P10" t="n">
         <v>231.794385483914</v>
@@ -1236,13 +1236,13 @@
         <v>269.633422339723</v>
       </c>
       <c r="V10" t="n">
-        <v>434.650411630556</v>
+        <v>423.805007885456</v>
       </c>
       <c r="W10" t="n">
-        <v>331.318741794547</v>
+        <v>324.160775322781</v>
       </c>
       <c r="X10" t="n">
-        <v>287.853700631492</v>
+        <v>281.780274534235</v>
       </c>
       <c r="Y10" t="n">
         <v>415.128684889376</v>
@@ -1265,13 +1265,13 @@
         <v>34982.9184257906</v>
       </c>
       <c r="D11" t="n">
-        <v>56594.5781805983</v>
+        <v>55165.0303863361</v>
       </c>
       <c r="E11" t="n">
-        <v>43044.016538211</v>
+        <v>42100.5149939979</v>
       </c>
       <c r="F11" t="n">
-        <v>37384.5587201512</v>
+        <v>36584.0119553643</v>
       </c>
       <c r="G11" t="n">
         <v>54021.3921509263</v>
@@ -1292,13 +1292,13 @@
         <v>47826.9890409128</v>
       </c>
       <c r="M11" t="n">
-        <v>77373.4265813297</v>
+        <v>75419.0165501976</v>
       </c>
       <c r="N11" t="n">
-        <v>58847.7405513476</v>
+        <v>57557.8299308005</v>
       </c>
       <c r="O11" t="n">
-        <v>51110.3978932147</v>
+        <v>50015.9282757807</v>
       </c>
       <c r="P11" t="n">
         <v>73855.4885252919</v>
@@ -1319,13 +1319,13 @@
         <v>65937.7531173411</v>
       </c>
       <c r="V11" t="n">
-        <v>106672.613143139</v>
+        <v>103978.121837976</v>
       </c>
       <c r="W11" t="n">
-        <v>81131.759824328</v>
+        <v>79353.3955629208</v>
       </c>
       <c r="X11" t="n">
-        <v>70464.4985100141</v>
+        <v>68955.5833791231</v>
       </c>
       <c r="Y11" t="n">
         <v>101822.528793846</v>
@@ -1348,13 +1348,13 @@
         <v>24440.661970163</v>
       </c>
       <c r="D12" t="n">
-        <v>39539.5529275286</v>
+        <v>38540.8056536592</v>
       </c>
       <c r="E12" t="n">
-        <v>30072.5126830165</v>
+        <v>29413.3394822626</v>
       </c>
       <c r="F12" t="n">
-        <v>26118.5573902636</v>
+        <v>25559.2589168967</v>
       </c>
       <c r="G12" t="n">
         <v>37741.8078345636</v>
@@ -1375,13 +1375,13 @@
         <v>33414.1153683127</v>
       </c>
       <c r="M12" t="n">
-        <v>54056.6038982428</v>
+        <v>52691.1639329259</v>
       </c>
       <c r="N12" t="n">
-        <v>41113.7148998693</v>
+        <v>40212.5245227601</v>
       </c>
       <c r="O12" t="n">
-        <v>35708.054510045</v>
+        <v>34943.4081294676</v>
       </c>
       <c r="P12" t="n">
         <v>51598.8119606724</v>
@@ -1402,13 +1402,13 @@
         <v>46067.1209702417</v>
       </c>
       <c r="V12" t="n">
-        <v>74526.3516203194</v>
+        <v>72643.8571305953</v>
       </c>
       <c r="W12" t="n">
-        <v>56682.3468750102</v>
+        <v>55439.9005117923</v>
       </c>
       <c r="X12" t="n">
-        <v>49229.7117129783</v>
+        <v>48175.5147987328</v>
       </c>
       <c r="Y12" t="n">
         <v>71137.861538816</v>
@@ -1431,13 +1431,13 @@
         <v>4670.04587471125</v>
       </c>
       <c r="D13" t="n">
-        <v>7621.63517316019</v>
+        <v>7423.40430318562</v>
       </c>
       <c r="E13" t="n">
-        <v>5765.23725358455</v>
+        <v>5634.40487940133</v>
       </c>
       <c r="F13" t="n">
-        <v>5003.07373626853</v>
+        <v>4892.06444908277</v>
       </c>
       <c r="G13" t="n">
         <v>7264.81960720597</v>
@@ -1458,13 +1458,13 @@
         <v>10566.634968912</v>
       </c>
       <c r="M13" t="n">
-        <v>17245.0204776593</v>
+        <v>16796.4952813794</v>
       </c>
       <c r="N13" t="n">
-        <v>13044.6593464282</v>
+        <v>12748.6327168834</v>
       </c>
       <c r="O13" t="n">
-        <v>11320.1572986623</v>
+        <v>11068.9831887455</v>
       </c>
       <c r="P13" t="n">
         <v>16437.6751243554</v>
@@ -1485,13 +1485,13 @@
         <v>14004.9075756615</v>
       </c>
       <c r="V13" t="n">
-        <v>22856.369945642</v>
+        <v>22261.8993371903</v>
       </c>
       <c r="W13" t="n">
-        <v>17289.2551924245</v>
+        <v>16896.9045908464</v>
       </c>
       <c r="X13" t="n">
-        <v>15003.6181978603</v>
+        <v>14670.7146571274</v>
       </c>
       <c r="Y13" t="n">
         <v>21786.3228504289</v>
@@ -1514,13 +1514,13 @@
         <v>5349.64210274759</v>
       </c>
       <c r="D14" t="n">
-        <v>8730.75372447828</v>
+        <v>8503.67582491786</v>
       </c>
       <c r="E14" t="n">
-        <v>6604.20834645693</v>
+        <v>6454.33693274705</v>
       </c>
       <c r="F14" t="n">
-        <v>5731.1329740091</v>
+        <v>5603.96935025526</v>
       </c>
       <c r="G14" t="n">
         <v>8322.01350526952</v>
@@ -1541,13 +1541,13 @@
         <v>12104.3169233432</v>
       </c>
       <c r="M14" t="n">
-        <v>19754.5570397068</v>
+        <v>19240.7613857592</v>
       </c>
       <c r="N14" t="n">
-        <v>14942.9493259457</v>
+        <v>14603.8441943403</v>
       </c>
       <c r="O14" t="n">
-        <v>12967.493621975</v>
+        <v>12679.7680557644</v>
       </c>
       <c r="P14" t="n">
         <v>18829.7248626012</v>
@@ -1568,13 +1568,13 @@
         <v>16042.9351706272</v>
       </c>
       <c r="V14" t="n">
-        <v>26182.4834825078</v>
+        <v>25501.5040914829</v>
       </c>
       <c r="W14" t="n">
-        <v>19805.2288957997</v>
+        <v>19355.7824977233</v>
       </c>
       <c r="X14" t="n">
-        <v>17186.980547549</v>
+        <v>16805.632088575</v>
       </c>
       <c r="Y14" t="n">
         <v>24956.720578663</v>
@@ -1597,13 +1597,13 @@
         <v>4060.15182390941</v>
       </c>
       <c r="D15" t="n">
-        <v>6626.27237069524</v>
+        <v>6453.92986060541</v>
       </c>
       <c r="E15" t="n">
-        <v>5012.31447792985</v>
+        <v>4898.56842127056</v>
       </c>
       <c r="F15" t="n">
-        <v>4349.68724086032</v>
+        <v>4253.17543521002</v>
       </c>
       <c r="G15" t="n">
         <v>6316.05585253355</v>
@@ -1624,13 +1624,13 @@
         <v>9186.66398416601</v>
       </c>
       <c r="M15" t="n">
-        <v>14992.8722809501</v>
+        <v>14602.9231364231</v>
       </c>
       <c r="N15" t="n">
-        <v>11341.0657750663</v>
+        <v>11083.6993396785</v>
       </c>
       <c r="O15" t="n">
-        <v>9841.77854697129</v>
+        <v>9623.40702603619</v>
       </c>
       <c r="P15" t="n">
         <v>14290.9638208016</v>
@@ -1651,13 +1651,13 @@
         <v>12175.9084519744</v>
       </c>
       <c r="V15" t="n">
-        <v>19871.3962587111</v>
+        <v>19354.5617371841</v>
       </c>
       <c r="W15" t="n">
-        <v>15031.3300740109</v>
+        <v>14690.219289803</v>
       </c>
       <c r="X15" t="n">
-        <v>13044.1904481398</v>
+        <v>12754.7631160846</v>
       </c>
       <c r="Y15" t="n">
         <v>18941.0941199625</v>
@@ -1680,13 +1680,13 @@
         <v>12790.3495225301</v>
       </c>
       <c r="D16" t="n">
-        <v>20874.1799145507</v>
+        <v>20331.2640243964</v>
       </c>
       <c r="E16" t="n">
-        <v>15789.8662094442</v>
+        <v>15431.5417219425</v>
       </c>
       <c r="F16" t="n">
-        <v>13702.4482179892</v>
+        <v>13398.4153195028</v>
       </c>
       <c r="G16" t="n">
         <v>19896.9313122731</v>
@@ -1707,13 +1707,13 @@
         <v>28939.962937244</v>
       </c>
       <c r="M16" t="n">
-        <v>47230.7650395595</v>
+        <v>46002.3415542257</v>
       </c>
       <c r="N16" t="n">
-        <v>35726.7908965608</v>
+        <v>34916.0313962404</v>
       </c>
       <c r="O16" t="n">
-        <v>31003.7143926048</v>
+        <v>30315.7972408179</v>
       </c>
       <c r="P16" t="n">
         <v>45019.6027659586</v>
@@ -1734,13 +1734,13 @@
         <v>38356.7244796103</v>
       </c>
       <c r="V16" t="n">
-        <v>62599.1624630642</v>
+        <v>60971.0228115585</v>
       </c>
       <c r="W16" t="n">
-        <v>47351.9153404463</v>
+        <v>46277.3431704525</v>
       </c>
       <c r="X16" t="n">
-        <v>41091.9990941399</v>
+        <v>40180.2408892967</v>
       </c>
       <c r="Y16" t="n">
         <v>59668.5110903539</v>
@@ -1763,13 +1763,13 @@
         <v>3310.85341863857</v>
       </c>
       <c r="D17" t="n">
-        <v>5403.39807052402</v>
+        <v>5262.86125972115</v>
       </c>
       <c r="E17" t="n">
-        <v>4087.29506783979</v>
+        <v>3994.5407727099</v>
       </c>
       <c r="F17" t="n">
-        <v>3546.95526078739</v>
+        <v>3468.25464673778</v>
       </c>
       <c r="G17" t="n">
         <v>5150.43181107886</v>
@@ -1790,13 +1790,13 @@
         <v>7491.27106004953</v>
       </c>
       <c r="M17" t="n">
-        <v>12225.9473535644</v>
+        <v>11907.9630726197</v>
       </c>
       <c r="N17" t="n">
-        <v>9248.07938739311</v>
+        <v>9038.20976196959</v>
       </c>
       <c r="O17" t="n">
-        <v>8025.48465203667</v>
+        <v>7847.41345470762</v>
       </c>
       <c r="P17" t="n">
         <v>11653.5756478639</v>
@@ -1817,13 +1817,13 @@
         <v>9928.85238573018</v>
       </c>
       <c r="V17" t="n">
-        <v>16204.1428719103</v>
+        <v>15782.6898286051</v>
       </c>
       <c r="W17" t="n">
-        <v>12257.3077856741</v>
+        <v>11979.1487770926</v>
       </c>
       <c r="X17" t="n">
-        <v>10636.8934984831</v>
+        <v>10400.8797942321</v>
       </c>
       <c r="Y17" t="n">
         <v>15445.5273939608</v>
@@ -1846,13 +1846,13 @@
         <v>10542.4543067176</v>
       </c>
       <c r="D18" t="n">
-        <v>17205.557014037</v>
+        <v>16758.0582217437</v>
       </c>
       <c r="E18" t="n">
-        <v>13014.8079791741</v>
+        <v>12719.4587762605</v>
       </c>
       <c r="F18" t="n">
-        <v>11294.2522777704</v>
+        <v>11043.6529540861</v>
       </c>
       <c r="G18" t="n">
         <v>16400.059187909</v>
@@ -1873,13 +1873,13 @@
         <v>23853.7841648946</v>
       </c>
       <c r="M18" t="n">
-        <v>38929.9902574026</v>
+        <v>37917.4613628154</v>
       </c>
       <c r="N18" t="n">
-        <v>29447.8317335412</v>
+        <v>28779.5626631137</v>
       </c>
       <c r="O18" t="n">
-        <v>25554.832707801</v>
+        <v>24987.8165268322</v>
       </c>
       <c r="P18" t="n">
         <v>37107.4382471457</v>
@@ -1900,13 +1900,13 @@
         <v>31615.5562808777</v>
       </c>
       <c r="V18" t="n">
-        <v>51597.4023026619</v>
+        <v>50255.4070858214</v>
       </c>
       <c r="W18" t="n">
-        <v>39029.848475436</v>
+        <v>38144.1316323212</v>
       </c>
       <c r="X18" t="n">
-        <v>33870.1082451698</v>
+        <v>33118.5909237391</v>
       </c>
       <c r="Y18" t="n">
         <v>49181.8109123489</v>
@@ -1929,13 +1929,13 @@
         <v>30.9582567294892</v>
       </c>
       <c r="D19" t="n">
-        <v>44.9665422517213</v>
+        <v>44.2700176584036</v>
       </c>
       <c r="E19" t="n">
-        <v>36.6250722714352</v>
+        <v>36.1653660398455</v>
       </c>
       <c r="F19" t="n">
-        <v>32.1284180462631</v>
+        <v>31.7383642740051</v>
       </c>
       <c r="G19" t="n">
         <v>43.7127979837494</v>
@@ -1956,13 +1956,13 @@
         <v>70.0453730852545</v>
       </c>
       <c r="M19" t="n">
-        <v>101.74016760367</v>
+        <v>100.164228576214</v>
       </c>
       <c r="N19" t="n">
-        <v>82.8669674117472</v>
+        <v>81.8268476536264</v>
       </c>
       <c r="O19" t="n">
-        <v>72.6929506513802</v>
+        <v>71.810424796005</v>
       </c>
       <c r="P19" t="n">
         <v>98.9034773542497</v>
@@ -1983,13 +1983,13 @@
         <v>92.8376944319054</v>
       </c>
       <c r="V19" t="n">
-        <v>134.845774608755</v>
+        <v>132.757034989991</v>
       </c>
       <c r="W19" t="n">
-        <v>109.831354452304</v>
+        <v>108.45278630392</v>
       </c>
       <c r="X19" t="n">
-        <v>96.3467769914284</v>
+        <v>95.1770828049207</v>
       </c>
       <c r="Y19" t="n">
         <v>131.08604329498</v>
@@ -2012,13 +2012,13 @@
         <v>3171.44906416958</v>
       </c>
       <c r="D20" t="n">
-        <v>5175.88657281774</v>
+        <v>5041.2671014171</v>
       </c>
       <c r="E20" t="n">
-        <v>3915.19843340443</v>
+        <v>3826.34958228001</v>
       </c>
       <c r="F20" t="n">
-        <v>3397.60977612266</v>
+        <v>3322.2228721383</v>
       </c>
       <c r="G20" t="n">
         <v>4933.57152429659</v>
@@ -2039,13 +2039,13 @@
         <v>7175.84912067902</v>
       </c>
       <c r="M20" t="n">
-        <v>11711.170622888</v>
+        <v>11406.5751537726</v>
       </c>
       <c r="N20" t="n">
-        <v>8858.68657108183</v>
+        <v>8657.65356146561</v>
       </c>
       <c r="O20" t="n">
-        <v>7687.56950879302</v>
+        <v>7516.99604608836</v>
       </c>
       <c r="P20" t="n">
         <v>11162.8987784802</v>
@@ -2066,13 +2066,13 @@
         <v>9510.79544317312</v>
       </c>
       <c r="V20" t="n">
-        <v>15521.8631720404</v>
+        <v>15118.1555200322</v>
       </c>
       <c r="W20" t="n">
-        <v>11741.210615751</v>
+        <v>11474.7635654256</v>
       </c>
       <c r="X20" t="n">
-        <v>10189.0242985469</v>
+        <v>9962.94801342233</v>
       </c>
       <c r="Y20" t="n">
         <v>14795.1893984256</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
@@ -32,13 +32,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2015</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2070</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2070</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
   </si>
   <si>
     <t xml:space="preserve">MI_SA_2150</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2150</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2150</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
   </si>
 </sst>
 </file>
@@ -601,13 +601,13 @@
         <v>7216.3675157118</v>
       </c>
       <c r="D3" t="n">
-        <v>10038.4422730317</v>
+        <v>10165.6901328307</v>
       </c>
       <c r="E3" t="n">
-        <v>8362.72934598984</v>
+        <v>8446.71293345717</v>
       </c>
       <c r="F3" t="n">
-        <v>7358.88511868667</v>
+        <v>7430.1439201741</v>
       </c>
       <c r="G3" t="n">
         <v>9936.64398519249</v>
@@ -628,13 +628,13 @@
         <v>9737.94320272476</v>
       </c>
       <c r="M3" t="n">
-        <v>14137.4848066464</v>
+        <v>14383.1167820514</v>
       </c>
       <c r="N3" t="n">
-        <v>11426.7994958431</v>
+        <v>11588.9165996104</v>
       </c>
       <c r="O3" t="n">
-        <v>10013.0510151784</v>
+        <v>10150.6049214053</v>
       </c>
       <c r="P3" t="n">
         <v>13940.9792263223</v>
@@ -655,13 +655,13 @@
         <v>16365.0617903981</v>
       </c>
       <c r="V3" t="n">
-        <v>23758.6939670018</v>
+        <v>24171.4898081273</v>
       </c>
       <c r="W3" t="n">
-        <v>19203.2625291589</v>
+        <v>19475.7077843017</v>
       </c>
       <c r="X3" t="n">
-        <v>16827.3931324587</v>
+        <v>17058.558803489</v>
       </c>
       <c r="Y3" t="n">
         <v>23428.4572941014</v>
@@ -684,13 +684,13 @@
         <v>2489.99262522963</v>
       </c>
       <c r="D4" t="n">
-        <v>3463.74365970422</v>
+        <v>3507.65026947512</v>
       </c>
       <c r="E4" t="n">
-        <v>2885.54239414346</v>
+        <v>2914.52075659225</v>
       </c>
       <c r="F4" t="n">
-        <v>2539.16802817304</v>
+        <v>2563.75572964474</v>
       </c>
       <c r="G4" t="n">
         <v>3428.61837188751</v>
@@ -711,13 +711,13 @@
         <v>3360.05707953442</v>
       </c>
       <c r="M4" t="n">
-        <v>4878.10977353932</v>
+        <v>4962.86457655449</v>
       </c>
       <c r="N4" t="n">
-        <v>3942.79343626534</v>
+        <v>3998.73160625534</v>
       </c>
       <c r="O4" t="n">
-        <v>3454.9824589114</v>
+        <v>3502.44514859989</v>
       </c>
       <c r="P4" t="n">
         <v>4810.30593112719</v>
@@ -738,13 +738,13 @@
         <v>5646.73058582428</v>
       </c>
       <c r="V4" t="n">
-        <v>8197.88801417314</v>
+        <v>8340.32236190974</v>
       </c>
       <c r="W4" t="n">
-        <v>6626.04585670658</v>
+        <v>6720.05252621274</v>
       </c>
       <c r="X4" t="n">
-        <v>5806.25705528927</v>
+        <v>5886.02029002176</v>
       </c>
       <c r="Y4" t="n">
         <v>8083.94053598386</v>
@@ -767,13 +767,13 @@
         <v>366.142327290169</v>
       </c>
       <c r="D5" t="n">
-        <v>575.495984725884</v>
+        <v>590.223244177531</v>
       </c>
       <c r="E5" t="n">
-        <v>440.186456348601</v>
+        <v>449.906447586688</v>
       </c>
       <c r="F5" t="n">
-        <v>382.636857876013</v>
+        <v>390.884123168935</v>
       </c>
       <c r="G5" t="n">
         <v>563.714177164567</v>
@@ -794,13 +794,13 @@
         <v>903.327315776539</v>
       </c>
       <c r="M5" t="n">
-        <v>1419.83377603491</v>
+        <v>1456.16810494919</v>
       </c>
       <c r="N5" t="n">
-        <v>1086.00514176402</v>
+        <v>1109.98579884745</v>
       </c>
       <c r="O5" t="n">
-        <v>944.021764160532</v>
+        <v>964.368988352528</v>
       </c>
       <c r="P5" t="n">
         <v>1390.76631290348</v>
@@ -821,13 +821,13 @@
         <v>1617.80053403834</v>
       </c>
       <c r="V5" t="n">
-        <v>2542.83004731273</v>
+        <v>2607.90246978334</v>
       </c>
       <c r="W5" t="n">
-        <v>1944.96465193669</v>
+        <v>1987.91245076728</v>
       </c>
       <c r="X5" t="n">
-        <v>1690.68164720541</v>
+        <v>1727.12220378895</v>
       </c>
       <c r="Y5" t="n">
         <v>2490.77210933625</v>
@@ -850,13 +850,13 @@
         <v>256.299629103118</v>
       </c>
       <c r="D6" t="n">
-        <v>402.847189308119</v>
+        <v>413.156270924271</v>
       </c>
       <c r="E6" t="n">
-        <v>308.130519444021</v>
+        <v>314.934513310682</v>
       </c>
       <c r="F6" t="n">
-        <v>267.845800513209</v>
+        <v>273.618886218255</v>
       </c>
       <c r="G6" t="n">
         <v>394.599924015197</v>
@@ -877,13 +877,13 @@
         <v>632.329121043577</v>
       </c>
       <c r="M6" t="n">
-        <v>993.883643224435</v>
+        <v>1019.31767346443</v>
       </c>
       <c r="N6" t="n">
-        <v>760.203599234816</v>
+        <v>776.990059193212</v>
       </c>
       <c r="O6" t="n">
-        <v>660.815234912372</v>
+        <v>675.05829184677</v>
       </c>
       <c r="P6" t="n">
         <v>973.536419032438</v>
@@ -904,13 +904,13 @@
         <v>1132.46037382684</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.98103311891</v>
+        <v>1825.53172884834</v>
       </c>
       <c r="W6" t="n">
-        <v>1361.47525635568</v>
+        <v>1391.5387155371</v>
       </c>
       <c r="X6" t="n">
-        <v>1183.47715304379</v>
+        <v>1208.98554265226</v>
       </c>
       <c r="Y6" t="n">
         <v>1743.54047653538</v>
@@ -933,13 +933,13 @@
         <v>882.809833577407</v>
       </c>
       <c r="D7" t="n">
-        <v>1387.58476317241</v>
+        <v>1423.09382207249</v>
       </c>
       <c r="E7" t="n">
-        <v>1061.33845586274</v>
+        <v>1084.77443473679</v>
       </c>
       <c r="F7" t="n">
-        <v>922.579979545498</v>
+        <v>942.465052529543</v>
       </c>
       <c r="G7" t="n">
         <v>1359.17751605234</v>
@@ -960,13 +960,13 @@
         <v>2178.02252803899</v>
       </c>
       <c r="M7" t="n">
-        <v>3423.37699332861</v>
+        <v>3510.98309748859</v>
       </c>
       <c r="N7" t="n">
-        <v>2618.47906403103</v>
+        <v>2676.29909277662</v>
       </c>
       <c r="O7" t="n">
-        <v>2276.14136469817</v>
+        <v>2325.20078302776</v>
       </c>
       <c r="P7" t="n">
         <v>3353.29211000062</v>
@@ -987,13 +987,13 @@
         <v>3900.69684318133</v>
       </c>
       <c r="V7" t="n">
-        <v>6131.04578074293</v>
+        <v>6287.94262158871</v>
       </c>
       <c r="W7" t="n">
-        <v>4689.5258830029</v>
+        <v>4793.07779796111</v>
       </c>
       <c r="X7" t="n">
-        <v>4076.4213049286</v>
+        <v>4164.28353580224</v>
       </c>
       <c r="Y7" t="n">
         <v>6005.5283080663</v>
@@ -1016,13 +1016,13 @@
         <v>1521.66215986255</v>
       </c>
       <c r="D8" t="n">
-        <v>2116.73223648592</v>
+        <v>2143.56405356813</v>
       </c>
       <c r="E8" t="n">
-        <v>1763.38701864322</v>
+        <v>1781.09601791749</v>
       </c>
       <c r="F8" t="n">
-        <v>1551.71379499463</v>
+        <v>1566.73961256067</v>
       </c>
       <c r="G8" t="n">
         <v>2095.26678282014</v>
@@ -1043,13 +1043,13 @@
         <v>2053.36821527104</v>
       </c>
       <c r="M8" t="n">
-        <v>2981.06708382959</v>
+        <v>3032.86168567219</v>
       </c>
       <c r="N8" t="n">
-        <v>2409.48487771771</v>
+        <v>2443.66931493382</v>
       </c>
       <c r="O8" t="n">
-        <v>2111.37816933475</v>
+        <v>2140.3831463666</v>
       </c>
       <c r="P8" t="n">
         <v>2939.63140235551</v>
@@ -1070,13 +1070,13 @@
         <v>3450.77980244817</v>
       </c>
       <c r="V8" t="n">
-        <v>5009.82045310581</v>
+        <v>5096.8636656115</v>
       </c>
       <c r="W8" t="n">
-        <v>4049.25024576513</v>
+        <v>4106.69876601889</v>
       </c>
       <c r="X8" t="n">
-        <v>3548.26820045455</v>
+        <v>3597.01239945774</v>
       </c>
       <c r="Y8" t="n">
         <v>4940.18588310125</v>
@@ -1099,13 +1099,13 @@
         <v>439.370792748203</v>
       </c>
       <c r="D9" t="n">
-        <v>690.595181671061</v>
+        <v>708.267893013037</v>
       </c>
       <c r="E9" t="n">
-        <v>528.223747618322</v>
+        <v>539.887737104026</v>
       </c>
       <c r="F9" t="n">
-        <v>459.164229451216</v>
+        <v>469.060947802722</v>
       </c>
       <c r="G9" t="n">
         <v>676.45701259748</v>
@@ -1126,13 +1126,13 @@
         <v>1083.99277893185</v>
       </c>
       <c r="M9" t="n">
-        <v>1703.80053124189</v>
+        <v>1747.40172593902</v>
       </c>
       <c r="N9" t="n">
-        <v>1303.20617011683</v>
+        <v>1331.98295861694</v>
       </c>
       <c r="O9" t="n">
-        <v>1132.82611699264</v>
+        <v>1157.24278602303</v>
       </c>
       <c r="P9" t="n">
         <v>1668.91957548418</v>
@@ -1153,13 +1153,13 @@
         <v>1941.36064084601</v>
       </c>
       <c r="V9" t="n">
-        <v>3051.39605677528</v>
+        <v>3129.48296374</v>
       </c>
       <c r="W9" t="n">
-        <v>2333.95758232402</v>
+        <v>2385.49494092074</v>
       </c>
       <c r="X9" t="n">
-        <v>2028.81797664649</v>
+        <v>2072.54664454674</v>
       </c>
       <c r="Y9" t="n">
         <v>2988.9265312035</v>
@@ -1182,13 +1182,13 @@
         <v>61.0237212150281</v>
       </c>
       <c r="D10" t="n">
-        <v>95.915997454314</v>
+        <v>98.3705406962551</v>
       </c>
       <c r="E10" t="n">
-        <v>73.3644093914336</v>
+        <v>74.9844079311147</v>
       </c>
       <c r="F10" t="n">
-        <v>63.7728096460022</v>
+        <v>65.1473538614892</v>
       </c>
       <c r="G10" t="n">
         <v>93.9523628607611</v>
@@ -1209,13 +1209,13 @@
         <v>150.554552629423</v>
       </c>
       <c r="M10" t="n">
-        <v>236.638962672484</v>
+        <v>242.694684158198</v>
       </c>
       <c r="N10" t="n">
-        <v>181.00085696067</v>
+        <v>184.997633141241</v>
       </c>
       <c r="O10" t="n">
-        <v>157.336960693422</v>
+        <v>160.728164725421</v>
       </c>
       <c r="P10" t="n">
         <v>231.794385483914</v>
@@ -1236,13 +1236,13 @@
         <v>269.633422339723</v>
       </c>
       <c r="V10" t="n">
-        <v>423.805007885456</v>
+        <v>434.650411630556</v>
       </c>
       <c r="W10" t="n">
-        <v>324.160775322781</v>
+        <v>331.318741794547</v>
       </c>
       <c r="X10" t="n">
-        <v>281.780274534235</v>
+        <v>287.853700631492</v>
       </c>
       <c r="Y10" t="n">
         <v>415.128684889376</v>
@@ -1265,13 +1265,13 @@
         <v>34982.9184257906</v>
       </c>
       <c r="D11" t="n">
-        <v>55165.0303863361</v>
+        <v>56594.5781805983</v>
       </c>
       <c r="E11" t="n">
-        <v>42100.5149939979</v>
+        <v>43044.016538211</v>
       </c>
       <c r="F11" t="n">
-        <v>36584.0119553643</v>
+        <v>37384.5587201512</v>
       </c>
       <c r="G11" t="n">
         <v>54021.3921509263</v>
@@ -1292,13 +1292,13 @@
         <v>47826.9890409128</v>
       </c>
       <c r="M11" t="n">
-        <v>75419.0165501976</v>
+        <v>77373.4265813297</v>
       </c>
       <c r="N11" t="n">
-        <v>57557.8299308005</v>
+        <v>58847.7405513476</v>
       </c>
       <c r="O11" t="n">
-        <v>50015.9282757807</v>
+        <v>51110.3978932147</v>
       </c>
       <c r="P11" t="n">
         <v>73855.4885252919</v>
@@ -1319,13 +1319,13 @@
         <v>65937.7531173411</v>
       </c>
       <c r="V11" t="n">
-        <v>103978.121837976</v>
+        <v>106672.613143139</v>
       </c>
       <c r="W11" t="n">
-        <v>79353.3955629208</v>
+        <v>81131.759824328</v>
       </c>
       <c r="X11" t="n">
-        <v>68955.5833791231</v>
+        <v>70464.4985100141</v>
       </c>
       <c r="Y11" t="n">
         <v>101822.528793846</v>
@@ -1348,13 +1348,13 @@
         <v>24440.661970163</v>
       </c>
       <c r="D12" t="n">
-        <v>38540.8056536592</v>
+        <v>39539.5529275286</v>
       </c>
       <c r="E12" t="n">
-        <v>29413.3394822626</v>
+        <v>30072.5126830165</v>
       </c>
       <c r="F12" t="n">
-        <v>25559.2589168967</v>
+        <v>26118.5573902636</v>
       </c>
       <c r="G12" t="n">
         <v>37741.8078345636</v>
@@ -1375,13 +1375,13 @@
         <v>33414.1153683127</v>
       </c>
       <c r="M12" t="n">
-        <v>52691.1639329259</v>
+        <v>54056.6038982428</v>
       </c>
       <c r="N12" t="n">
-        <v>40212.5245227601</v>
+        <v>41113.7148998693</v>
       </c>
       <c r="O12" t="n">
-        <v>34943.4081294676</v>
+        <v>35708.054510045</v>
       </c>
       <c r="P12" t="n">
         <v>51598.8119606724</v>
@@ -1402,13 +1402,13 @@
         <v>46067.1209702417</v>
       </c>
       <c r="V12" t="n">
-        <v>72643.8571305953</v>
+        <v>74526.3516203194</v>
       </c>
       <c r="W12" t="n">
-        <v>55439.9005117923</v>
+        <v>56682.3468750102</v>
       </c>
       <c r="X12" t="n">
-        <v>48175.5147987328</v>
+        <v>49229.7117129783</v>
       </c>
       <c r="Y12" t="n">
         <v>71137.861538816</v>
@@ -1431,13 +1431,13 @@
         <v>4670.04587471125</v>
       </c>
       <c r="D13" t="n">
-        <v>7423.40430318562</v>
+        <v>7621.63517316019</v>
       </c>
       <c r="E13" t="n">
-        <v>5634.40487940133</v>
+        <v>5765.23725358455</v>
       </c>
       <c r="F13" t="n">
-        <v>4892.06444908277</v>
+        <v>5003.07373626853</v>
       </c>
       <c r="G13" t="n">
         <v>7264.81960720597</v>
@@ -1458,13 +1458,13 @@
         <v>10566.634968912</v>
       </c>
       <c r="M13" t="n">
-        <v>16796.4952813794</v>
+        <v>17245.0204776593</v>
       </c>
       <c r="N13" t="n">
-        <v>12748.6327168834</v>
+        <v>13044.6593464282</v>
       </c>
       <c r="O13" t="n">
-        <v>11068.9831887455</v>
+        <v>11320.1572986623</v>
       </c>
       <c r="P13" t="n">
         <v>16437.6751243554</v>
@@ -1485,13 +1485,13 @@
         <v>14004.9075756615</v>
       </c>
       <c r="V13" t="n">
-        <v>22261.8993371903</v>
+        <v>22856.369945642</v>
       </c>
       <c r="W13" t="n">
-        <v>16896.9045908464</v>
+        <v>17289.2551924245</v>
       </c>
       <c r="X13" t="n">
-        <v>14670.7146571274</v>
+        <v>15003.6181978603</v>
       </c>
       <c r="Y13" t="n">
         <v>21786.3228504289</v>
@@ -1514,13 +1514,13 @@
         <v>5349.64210274759</v>
       </c>
       <c r="D14" t="n">
-        <v>8503.67582491786</v>
+        <v>8730.75372447828</v>
       </c>
       <c r="E14" t="n">
-        <v>6454.33693274705</v>
+        <v>6604.20834645693</v>
       </c>
       <c r="F14" t="n">
-        <v>5603.96935025526</v>
+        <v>5731.1329740091</v>
       </c>
       <c r="G14" t="n">
         <v>8322.01350526952</v>
@@ -1541,13 +1541,13 @@
         <v>12104.3169233432</v>
       </c>
       <c r="M14" t="n">
-        <v>19240.7613857592</v>
+        <v>19754.5570397068</v>
       </c>
       <c r="N14" t="n">
-        <v>14603.8441943403</v>
+        <v>14942.9493259457</v>
       </c>
       <c r="O14" t="n">
-        <v>12679.7680557644</v>
+        <v>12967.493621975</v>
       </c>
       <c r="P14" t="n">
         <v>18829.7248626012</v>
@@ -1568,13 +1568,13 @@
         <v>16042.9351706272</v>
       </c>
       <c r="V14" t="n">
-        <v>25501.5040914829</v>
+        <v>26182.4834825078</v>
       </c>
       <c r="W14" t="n">
-        <v>19355.7824977233</v>
+        <v>19805.2288957997</v>
       </c>
       <c r="X14" t="n">
-        <v>16805.632088575</v>
+        <v>17186.980547549</v>
       </c>
       <c r="Y14" t="n">
         <v>24956.720578663</v>
@@ -1597,13 +1597,13 @@
         <v>4060.15182390941</v>
       </c>
       <c r="D15" t="n">
-        <v>6453.92986060541</v>
+        <v>6626.27237069524</v>
       </c>
       <c r="E15" t="n">
-        <v>4898.56842127056</v>
+        <v>5012.31447792985</v>
       </c>
       <c r="F15" t="n">
-        <v>4253.17543521002</v>
+        <v>4349.68724086032</v>
       </c>
       <c r="G15" t="n">
         <v>6316.05585253355</v>
@@ -1624,13 +1624,13 @@
         <v>9186.66398416601</v>
       </c>
       <c r="M15" t="n">
-        <v>14602.9231364231</v>
+        <v>14992.8722809501</v>
       </c>
       <c r="N15" t="n">
-        <v>11083.6993396785</v>
+        <v>11341.0657750663</v>
       </c>
       <c r="O15" t="n">
-        <v>9623.40702603619</v>
+        <v>9841.77854697129</v>
       </c>
       <c r="P15" t="n">
         <v>14290.9638208016</v>
@@ -1651,13 +1651,13 @@
         <v>12175.9084519744</v>
       </c>
       <c r="V15" t="n">
-        <v>19354.5617371841</v>
+        <v>19871.3962587111</v>
       </c>
       <c r="W15" t="n">
-        <v>14690.219289803</v>
+        <v>15031.3300740109</v>
       </c>
       <c r="X15" t="n">
-        <v>12754.7631160846</v>
+        <v>13044.1904481398</v>
       </c>
       <c r="Y15" t="n">
         <v>18941.0941199625</v>
@@ -1680,13 +1680,13 @@
         <v>12790.3495225301</v>
       </c>
       <c r="D16" t="n">
-        <v>20331.2640243964</v>
+        <v>20874.1799145507</v>
       </c>
       <c r="E16" t="n">
-        <v>15431.5417219425</v>
+        <v>15789.8662094442</v>
       </c>
       <c r="F16" t="n">
-        <v>13398.4153195028</v>
+        <v>13702.4482179892</v>
       </c>
       <c r="G16" t="n">
         <v>19896.9313122731</v>
@@ -1707,13 +1707,13 @@
         <v>28939.962937244</v>
       </c>
       <c r="M16" t="n">
-        <v>46002.3415542257</v>
+        <v>47230.7650395595</v>
       </c>
       <c r="N16" t="n">
-        <v>34916.0313962404</v>
+        <v>35726.7908965608</v>
       </c>
       <c r="O16" t="n">
-        <v>30315.7972408179</v>
+        <v>31003.7143926048</v>
       </c>
       <c r="P16" t="n">
         <v>45019.6027659586</v>
@@ -1734,13 +1734,13 @@
         <v>38356.7244796103</v>
       </c>
       <c r="V16" t="n">
-        <v>60971.0228115585</v>
+        <v>62599.1624630642</v>
       </c>
       <c r="W16" t="n">
-        <v>46277.3431704525</v>
+        <v>47351.9153404463</v>
       </c>
       <c r="X16" t="n">
-        <v>40180.2408892967</v>
+        <v>41091.9990941399</v>
       </c>
       <c r="Y16" t="n">
         <v>59668.5110903539</v>
@@ -1763,13 +1763,13 @@
         <v>3310.85341863857</v>
       </c>
       <c r="D17" t="n">
-        <v>5262.86125972115</v>
+        <v>5403.39807052402</v>
       </c>
       <c r="E17" t="n">
-        <v>3994.5407727099</v>
+        <v>4087.29506783979</v>
       </c>
       <c r="F17" t="n">
-        <v>3468.25464673778</v>
+        <v>3546.95526078739</v>
       </c>
       <c r="G17" t="n">
         <v>5150.43181107886</v>
@@ -1790,13 +1790,13 @@
         <v>7491.27106004953</v>
       </c>
       <c r="M17" t="n">
-        <v>11907.9630726197</v>
+        <v>12225.9473535644</v>
       </c>
       <c r="N17" t="n">
-        <v>9038.20976196959</v>
+        <v>9248.07938739311</v>
       </c>
       <c r="O17" t="n">
-        <v>7847.41345470762</v>
+        <v>8025.48465203667</v>
       </c>
       <c r="P17" t="n">
         <v>11653.5756478639</v>
@@ -1817,13 +1817,13 @@
         <v>9928.85238573018</v>
       </c>
       <c r="V17" t="n">
-        <v>15782.6898286051</v>
+        <v>16204.1428719103</v>
       </c>
       <c r="W17" t="n">
-        <v>11979.1487770926</v>
+        <v>12257.3077856741</v>
       </c>
       <c r="X17" t="n">
-        <v>10400.8797942321</v>
+        <v>10636.8934984831</v>
       </c>
       <c r="Y17" t="n">
         <v>15445.5273939608</v>
@@ -1846,13 +1846,13 @@
         <v>10542.4543067176</v>
       </c>
       <c r="D18" t="n">
-        <v>16758.0582217437</v>
+        <v>17205.557014037</v>
       </c>
       <c r="E18" t="n">
-        <v>12719.4587762605</v>
+        <v>13014.8079791741</v>
       </c>
       <c r="F18" t="n">
-        <v>11043.6529540861</v>
+        <v>11294.2522777704</v>
       </c>
       <c r="G18" t="n">
         <v>16400.059187909</v>
@@ -1873,13 +1873,13 @@
         <v>23853.7841648946</v>
       </c>
       <c r="M18" t="n">
-        <v>37917.4613628154</v>
+        <v>38929.9902574026</v>
       </c>
       <c r="N18" t="n">
-        <v>28779.5626631137</v>
+        <v>29447.8317335412</v>
       </c>
       <c r="O18" t="n">
-        <v>24987.8165268322</v>
+        <v>25554.832707801</v>
       </c>
       <c r="P18" t="n">
         <v>37107.4382471457</v>
@@ -1900,13 +1900,13 @@
         <v>31615.5562808777</v>
       </c>
       <c r="V18" t="n">
-        <v>50255.4070858214</v>
+        <v>51597.4023026619</v>
       </c>
       <c r="W18" t="n">
-        <v>38144.1316323212</v>
+        <v>39029.848475436</v>
       </c>
       <c r="X18" t="n">
-        <v>33118.5909237391</v>
+        <v>33870.1082451698</v>
       </c>
       <c r="Y18" t="n">
         <v>49181.8109123489</v>
@@ -1929,13 +1929,13 @@
         <v>30.9582567294892</v>
       </c>
       <c r="D19" t="n">
-        <v>44.2700176584036</v>
+        <v>44.9665422517213</v>
       </c>
       <c r="E19" t="n">
-        <v>36.1653660398455</v>
+        <v>36.6250722714352</v>
       </c>
       <c r="F19" t="n">
-        <v>31.7383642740051</v>
+        <v>32.1284180462631</v>
       </c>
       <c r="G19" t="n">
         <v>43.7127979837494</v>
@@ -1956,13 +1956,13 @@
         <v>70.0453730852545</v>
       </c>
       <c r="M19" t="n">
-        <v>100.164228576214</v>
+        <v>101.74016760367</v>
       </c>
       <c r="N19" t="n">
-        <v>81.8268476536264</v>
+        <v>82.8669674117472</v>
       </c>
       <c r="O19" t="n">
-        <v>71.810424796005</v>
+        <v>72.6929506513802</v>
       </c>
       <c r="P19" t="n">
         <v>98.9034773542497</v>
@@ -1983,13 +1983,13 @@
         <v>92.8376944319054</v>
       </c>
       <c r="V19" t="n">
-        <v>132.757034989991</v>
+        <v>134.845774608755</v>
       </c>
       <c r="W19" t="n">
-        <v>108.45278630392</v>
+        <v>109.831354452304</v>
       </c>
       <c r="X19" t="n">
-        <v>95.1770828049207</v>
+        <v>96.3467769914284</v>
       </c>
       <c r="Y19" t="n">
         <v>131.08604329498</v>
@@ -2012,13 +2012,13 @@
         <v>3171.44906416958</v>
       </c>
       <c r="D20" t="n">
-        <v>5041.2671014171</v>
+        <v>5175.88657281774</v>
       </c>
       <c r="E20" t="n">
-        <v>3826.34958228001</v>
+        <v>3915.19843340443</v>
       </c>
       <c r="F20" t="n">
-        <v>3322.2228721383</v>
+        <v>3397.60977612266</v>
       </c>
       <c r="G20" t="n">
         <v>4933.57152429659</v>
@@ -2039,13 +2039,13 @@
         <v>7175.84912067902</v>
       </c>
       <c r="M20" t="n">
-        <v>11406.5751537726</v>
+        <v>11711.170622888</v>
       </c>
       <c r="N20" t="n">
-        <v>8657.65356146561</v>
+        <v>8858.68657108183</v>
       </c>
       <c r="O20" t="n">
-        <v>7516.99604608836</v>
+        <v>7687.56950879302</v>
       </c>
       <c r="P20" t="n">
         <v>11162.8987784802</v>
@@ -2066,13 +2066,13 @@
         <v>9510.79544317312</v>
       </c>
       <c r="V20" t="n">
-        <v>15118.1555200322</v>
+        <v>15521.8631720404</v>
       </c>
       <c r="W20" t="n">
-        <v>11474.7635654256</v>
+        <v>11741.210615751</v>
       </c>
       <c r="X20" t="n">
-        <v>9962.94801342233</v>
+        <v>10189.0242985469</v>
       </c>
       <c r="Y20" t="n">
         <v>14795.1893984256</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -41,6 +41,15 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
   </si>
   <si>
+    <t xml:space="preserve">MI_SA_Precip_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI_SA_2070</t>
   </si>
   <si>
@@ -68,6 +77,15 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
   </si>
   <si>
+    <t xml:space="preserve">MI_SA_Precip_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2070</t>
+  </si>
+  <si>
     <t xml:space="preserve">MI_SA_2150</t>
   </si>
   <si>
@@ -93,6 +111,15 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_Precip_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2150</t>
   </si>
 </sst>
 </file>
@@ -506,6 +533,33 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -587,6 +641,33 @@
         <v>35500</v>
       </c>
       <c r="AA2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>35500</v>
       </c>
     </row>
@@ -619,58 +700,85 @@
         <v>7301.87807749672</v>
       </c>
       <c r="J3" t="n">
+        <v>9656.69869363471</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8362.72934598984</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7358.88511868667</v>
+      </c>
+      <c r="M3" t="n">
         <v>13646.2208558363</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>11102.5652883084</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>9737.94320272476</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>14137.4848066464</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>11426.7994958431</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>10013.0510151784</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>13940.9792263223</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>11297.1058128292</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>9903.00789019696</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
+        <v>13400.5888804312</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11426.7994958431</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10013.0510151784</v>
+      </c>
+      <c r="Y3" t="n">
         <v>22933.1022847507</v>
       </c>
-      <c r="T3" t="n">
+      <c r="Z3" t="n">
         <v>18658.3720188732</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AA3" t="n">
         <v>16365.0617903981</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AB3" t="n">
         <v>23758.6939670018</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AC3" t="n">
         <v>19203.2625291589</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AD3" t="n">
         <v>16827.3931324587</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AE3" t="n">
         <v>23428.4572941014</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AF3" t="n">
         <v>18985.3063250446</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AG3" t="n">
         <v>16642.4605956345</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22520.3064436252</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19203.2625291589</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16827.3931324587</v>
       </c>
     </row>
     <row r="4">
@@ -702,58 +810,85 @@
         <v>2519.49786699567</v>
       </c>
       <c r="J4" t="n">
+        <v>3332.02383039153</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2885.54239414346</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2539.16802817304</v>
+      </c>
+      <c r="M4" t="n">
         <v>4708.600167509</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>3830.91709628532</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>3360.05707953442</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>4878.10977353932</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>3942.79343626534</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>3454.9824589114</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
         <v>4810.30593112719</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>3898.04290027333</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
         <v>3417.01230716061</v>
       </c>
-      <c r="S4" t="n">
+      <c r="V4" t="n">
+        <v>4623.84536449384</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3942.79343626534</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3454.9824589114</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7913.01931869994</v>
       </c>
-      <c r="T4" t="n">
+      <c r="Z4" t="n">
         <v>6438.03251769427</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AA4" t="n">
         <v>5646.73058582428</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AB4" t="n">
         <v>8197.88801417314</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AC4" t="n">
         <v>6626.04585670658</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AD4" t="n">
         <v>5806.25705528927</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AE4" t="n">
         <v>8083.94053598386</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AF4" t="n">
         <v>6550.84052110166</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AG4" t="n">
         <v>5742.44646750327</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7770.58497096334</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6626.04585670658</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5806.25705528927</v>
       </c>
     </row>
     <row r="5">
@@ -785,58 +920,85 @@
         <v>376.039045641675</v>
       </c>
       <c r="J5" t="n">
+        <v>531.314206370944</v>
+      </c>
+      <c r="K5" t="n">
+        <v>440.186456348601</v>
+      </c>
+      <c r="L5" t="n">
+        <v>382.636857876013</v>
+      </c>
+      <c r="M5" t="n">
         <v>1347.16511820635</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>1038.04382759717</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>903.327315776539</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>1419.83377603491</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>1086.00514176402</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>944.021764160532</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>1390.76631290348</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>1066.82061609728</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>927.743984806935</v>
       </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
+        <v>1310.83078929207</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1086.00514176402</v>
+      </c>
+      <c r="X5" t="n">
+        <v>944.021764160532</v>
+      </c>
+      <c r="Y5" t="n">
         <v>2412.68520237153</v>
       </c>
-      <c r="T5" t="n">
+      <c r="Z5" t="n">
         <v>1859.06905427549</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AA5" t="n">
         <v>1617.80053403834</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AB5" t="n">
         <v>2542.83004731273</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AC5" t="n">
         <v>1944.96465193669</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AD5" t="n">
         <v>1690.68164720541</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AE5" t="n">
         <v>2490.77210933625</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AF5" t="n">
         <v>1910.60641287221</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AG5" t="n">
         <v>1661.52920193858</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2347.61277990093</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1944.96465193669</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1690.68164720541</v>
       </c>
     </row>
     <row r="6">
@@ -868,58 +1030,85 @@
         <v>263.227331949173</v>
       </c>
       <c r="J6" t="n">
+        <v>371.919944459661</v>
+      </c>
+      <c r="K6" t="n">
+        <v>308.130519444021</v>
+      </c>
+      <c r="L6" t="n">
+        <v>267.845800513209</v>
+      </c>
+      <c r="M6" t="n">
         <v>943.015582744444</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>726.630679318022</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>632.329121043577</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>993.883643224435</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>760.203599234816</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>660.815234912372</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="n">
         <v>973.536419032438</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>746.774431268098</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>649.420789364854</v>
       </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
+        <v>917.581552504448</v>
+      </c>
+      <c r="W6" t="n">
+        <v>760.203599234816</v>
+      </c>
+      <c r="X6" t="n">
+        <v>660.815234912372</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1688.87964166007</v>
       </c>
-      <c r="T6" t="n">
+      <c r="Z6" t="n">
         <v>1301.34833799284</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AA6" t="n">
         <v>1132.46037382684</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AB6" t="n">
         <v>1779.98103311891</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AC6" t="n">
         <v>1361.47525635568</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AD6" t="n">
         <v>1183.47715304379</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AE6" t="n">
         <v>1743.54047653538</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AF6" t="n">
         <v>1337.42448901055</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AG6" t="n">
         <v>1163.07044135701</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1643.32894593065</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1361.47525635568</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1183.47715304379</v>
       </c>
     </row>
     <row r="7">
@@ -951,58 +1140,85 @@
         <v>906.671921158262</v>
       </c>
       <c r="J7" t="n">
+        <v>1281.05758647216</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1061.33845586274</v>
+      </c>
+      <c r="L7" t="n">
+        <v>922.579979545498</v>
+      </c>
+      <c r="M7" t="n">
         <v>3248.16478500864</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>2502.83900653985</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>2178.02252803899</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>3423.37699332861</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>2618.47906403103</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>2276.14136469817</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>3353.29211000062</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>2572.22304103456</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>2236.8938300345</v>
       </c>
-      <c r="S7" t="n">
+      <c r="V7" t="n">
+        <v>3160.55868084866</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2618.47906403103</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2276.14136469817</v>
+      </c>
+      <c r="Y7" t="n">
         <v>5817.25209905136</v>
       </c>
-      <c r="T7" t="n">
+      <c r="Z7" t="n">
         <v>4482.42205308646</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AA7" t="n">
         <v>3900.69684318133</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AB7" t="n">
         <v>6131.04578074293</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AC7" t="n">
         <v>4689.5258830029</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AD7" t="n">
         <v>4076.4213049286</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AE7" t="n">
         <v>6005.5283080663</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AF7" t="n">
         <v>4606.68435103632</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AG7" t="n">
         <v>4006.13152022969</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5660.35525820558</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4689.5258830029</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>4076.4213049286</v>
       </c>
     </row>
     <row r="8">
@@ -1034,58 +1250,85 @@
         <v>1539.6931409418</v>
       </c>
       <c r="J8" t="n">
+        <v>2036.23678523927</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1763.38701864322</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1551.71379499463</v>
+      </c>
+      <c r="M8" t="n">
         <v>2877.47788014439</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>2341.11600328548</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>2053.36821527104</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>2981.06708382959</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>2409.48487771771</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>2111.37816933475</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>2939.63140235551</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>2382.13732794481</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>2088.17418770926</v>
       </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
+        <v>2825.68327830179</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2409.48487771771</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2111.37816933475</v>
+      </c>
+      <c r="Y8" t="n">
         <v>4835.73402809441</v>
       </c>
-      <c r="T8" t="n">
+      <c r="Z8" t="n">
         <v>3934.35320525761</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AA8" t="n">
         <v>3450.77980244817</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AB8" t="n">
         <v>5009.82045310581</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AC8" t="n">
         <v>4049.25024576513</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AD8" t="n">
         <v>3548.26820045455</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AE8" t="n">
         <v>4940.18588310125</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AF8" t="n">
         <v>4003.29142956212</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AG8" t="n">
         <v>3509.272841252</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4748.69081558871</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4049.25024576513</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3548.26820045455</v>
       </c>
     </row>
     <row r="9">
@@ -1117,58 +1360,85 @@
         <v>451.24685477001</v>
       </c>
       <c r="J9" t="n">
+        <v>637.577047645133</v>
+      </c>
+      <c r="K9" t="n">
+        <v>528.223747618322</v>
+      </c>
+      <c r="L9" t="n">
+        <v>459.164229451216</v>
+      </c>
+      <c r="M9" t="n">
         <v>1616.59814184762</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>1245.65259311661</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>1083.99277893185</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>1703.80053124189</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>1303.20617011683</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>1132.82611699264</v>
       </c>
-      <c r="P9" t="n">
+      <c r="S9" t="n">
         <v>1668.91957548418</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>1280.18473931674</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
         <v>1113.29278176832</v>
       </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
+        <v>1572.99694715048</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1303.20617011683</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1132.82611699264</v>
+      </c>
+      <c r="Y9" t="n">
         <v>2895.22224284584</v>
       </c>
-      <c r="T9" t="n">
+      <c r="Z9" t="n">
         <v>2230.88286513059</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AA9" t="n">
         <v>1941.36064084601</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AB9" t="n">
         <v>3051.39605677528</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AC9" t="n">
         <v>2333.95758232402</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AD9" t="n">
         <v>2028.81797664649</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AE9" t="n">
         <v>2988.9265312035</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AF9" t="n">
         <v>2292.72769544665</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AG9" t="n">
         <v>1993.8350423263</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2817.13533588112</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2333.95758232402</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2028.81797664649</v>
       </c>
     </row>
     <row r="10">
@@ -1200,58 +1470,85 @@
         <v>62.6731742736126</v>
       </c>
       <c r="J10" t="n">
+        <v>88.5523677284907</v>
+      </c>
+      <c r="K10" t="n">
+        <v>73.3644093914336</v>
+      </c>
+      <c r="L10" t="n">
+        <v>63.7728096460022</v>
+      </c>
+      <c r="M10" t="n">
         <v>224.527519701058</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>173.007304599529</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>150.554552629423</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>236.638962672484</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
         <v>181.00085696067</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>157.336960693422</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
         <v>231.794385483914</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>177.803436016214</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
         <v>154.623997467822</v>
       </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
+        <v>218.471798215345</v>
+      </c>
+      <c r="W10" t="n">
+        <v>181.00085696067</v>
+      </c>
+      <c r="X10" t="n">
+        <v>157.336960693422</v>
+      </c>
+      <c r="Y10" t="n">
         <v>402.114200395255</v>
       </c>
-      <c r="T10" t="n">
+      <c r="Z10" t="n">
         <v>309.844842379249</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AA10" t="n">
         <v>269.633422339723</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AB10" t="n">
         <v>423.805007885456</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AC10" t="n">
         <v>324.160775322781</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AD10" t="n">
         <v>281.780274534235</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AE10" t="n">
         <v>415.128684889376</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AF10" t="n">
         <v>318.434402145368</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AG10" t="n">
         <v>276.92153365643</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>391.268796650155</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>324.160775322781</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>281.780274534235</v>
       </c>
     </row>
     <row r="11">
@@ -1283,58 +1580,85 @@
         <v>35943.5745435348</v>
       </c>
       <c r="J11" t="n">
+        <v>50876.3870035494</v>
+      </c>
+      <c r="K11" t="n">
+        <v>42100.5149939979</v>
+      </c>
+      <c r="L11" t="n">
+        <v>36584.0119553643</v>
+      </c>
+      <c r="M11" t="n">
         <v>71510.1964879334</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>54978.0086897061</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>47826.9890409128</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>75419.0165501976</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>57557.8299308005</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>50015.9282757807</v>
       </c>
-      <c r="P11" t="n">
+      <c r="S11" t="n">
         <v>73855.4885252919</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="T11" t="n">
         <v>56525.9014343627</v>
       </c>
-      <c r="R11" t="n">
+      <c r="U11" t="n">
         <v>49140.3525818335</v>
       </c>
-      <c r="S11" t="n">
+      <c r="V11" t="n">
+        <v>69555.7864568014</v>
+      </c>
+      <c r="W11" t="n">
+        <v>57557.8299308005</v>
+      </c>
+      <c r="X11" t="n">
+        <v>50015.9282757807</v>
+      </c>
+      <c r="Y11" t="n">
         <v>98589.1392276515</v>
       </c>
-      <c r="T11" t="n">
+      <c r="Z11" t="n">
         <v>75796.6670401063</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AA11" t="n">
         <v>65937.7531173411</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AB11" t="n">
         <v>103978.121837976</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AC11" t="n">
         <v>79353.3955629208</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AD11" t="n">
         <v>68955.5833791231</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AE11" t="n">
         <v>101822.528793846</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AF11" t="n">
         <v>77930.704153795</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AG11" t="n">
         <v>67748.4512744103</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>95894.6479224889</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>79353.3955629208</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>68955.5833791231</v>
       </c>
     </row>
     <row r="12">
@@ -1366,58 +1690,85 @@
         <v>25111.8201382032</v>
       </c>
       <c r="J12" t="n">
+        <v>35544.5638320509</v>
+      </c>
+      <c r="K12" t="n">
+        <v>29413.3394822626</v>
+      </c>
+      <c r="L12" t="n">
+        <v>25559.2589168967</v>
+      </c>
+      <c r="M12" t="n">
         <v>49960.2840022921</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>38410.1437685419</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>33414.1153683127</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>52691.1639329259</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>40212.5245227601</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
         <v>34943.4081294676</v>
       </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
         <v>51598.8119606724</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="T12" t="n">
         <v>39491.5722210728</v>
       </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
         <v>34331.6910250056</v>
       </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
+        <v>48594.8440369752</v>
+      </c>
+      <c r="W12" t="n">
+        <v>40212.5245227601</v>
+      </c>
+      <c r="X12" t="n">
+        <v>34943.4081294676</v>
+      </c>
+      <c r="Y12" t="n">
         <v>68878.868151147</v>
       </c>
-      <c r="T12" t="n">
+      <c r="Z12" t="n">
         <v>52955.0077853564</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AA12" t="n">
         <v>46067.1209702417</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AB12" t="n">
         <v>72643.8571305953</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AC12" t="n">
         <v>55439.9005117923</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AD12" t="n">
         <v>48175.5147987328</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AE12" t="n">
         <v>71137.861538816</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AF12" t="n">
         <v>54445.9434212179</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AG12" t="n">
         <v>47332.1572673363</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>66996.3736614229</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>55439.9005117923</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>48175.5147987328</v>
       </c>
     </row>
     <row r="13">
@@ -1449,58 +1800,85 @@
         <v>4803.25701933416</v>
       </c>
       <c r="J13" t="n">
+        <v>6828.71169326191</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5634.40487940133</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4892.06444908277</v>
+      </c>
+      <c r="M13" t="n">
         <v>15899.4448888195</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>12156.5794577939</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>10566.634968912</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>16796.4952813794</v>
       </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
         <v>12748.6327168834</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>11068.9831887455</v>
       </c>
-      <c r="P13" t="n">
+      <c r="S13" t="n">
         <v>16437.6751243554</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="T13" t="n">
         <v>12511.8114132476</v>
       </c>
-      <c r="R13" t="n">
+      <c r="U13" t="n">
         <v>10868.0439008121</v>
       </c>
-      <c r="S13" t="n">
+      <c r="V13" t="n">
+        <v>15450.9196925396</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12748.6327168834</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11068.9831887455</v>
+      </c>
+      <c r="Y13" t="n">
         <v>21072.9581202869</v>
       </c>
-      <c r="T13" t="n">
+      <c r="Z13" t="n">
         <v>16112.2033876902</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AA13" t="n">
         <v>14004.9075756615</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AB13" t="n">
         <v>22261.8993371903</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AC13" t="n">
         <v>16896.9045908464</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AD13" t="n">
         <v>14670.7146571274</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AE13" t="n">
         <v>21786.3228504289</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AF13" t="n">
         <v>16583.0241095839</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AG13" t="n">
         <v>14404.391824541</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>20478.4875118353</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>16896.9045908464</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>14670.7146571274</v>
       </c>
     </row>
     <row r="14">
@@ -1532,58 +1910,85 @@
         <v>5502.23845125219</v>
       </c>
       <c r="J14" t="n">
+        <v>7822.4421262366</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6454.33693274705</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5603.96935025526</v>
+      </c>
+      <c r="M14" t="n">
         <v>18213.1700778642</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>13925.6339311296</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>12104.3169233432</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>19240.7613857592</v>
       </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
         <v>14603.8441943403</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>12679.7680557644</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
         <v>18829.7248626012</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="T14" t="n">
         <v>14332.5600890561</v>
       </c>
-      <c r="R14" t="n">
+      <c r="U14" t="n">
         <v>12449.5876027959</v>
       </c>
-      <c r="S14" t="n">
+      <c r="V14" t="n">
+        <v>17699.3744239166</v>
+      </c>
+      <c r="W14" t="n">
+        <v>14603.8441943403</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12679.7680557644</v>
+      </c>
+      <c r="Y14" t="n">
         <v>24139.5453094332</v>
       </c>
-      <c r="T14" t="n">
+      <c r="Z14" t="n">
         <v>18456.8897015705</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AA14" t="n">
         <v>16042.9351706272</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AB14" t="n">
         <v>25501.5040914829</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AC14" t="n">
         <v>19355.7824977233</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AD14" t="n">
         <v>16805.632088575</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AE14" t="n">
         <v>24956.720578663</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AF14" t="n">
         <v>18996.2253792622</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AG14" t="n">
         <v>16500.5533213959</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23458.5659184083</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>19355.7824977233</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>16805.632088575</v>
       </c>
     </row>
     <row r="15">
@@ -1615,58 +2020,85 @@
         <v>4175.96599068978</v>
       </c>
       <c r="J15" t="n">
+        <v>5936.90233033592</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4898.56842127056</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4253.17543521002</v>
+      </c>
+      <c r="M15" t="n">
         <v>13823.0248473692</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>10568.9664689029</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>9186.66398416601</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>14602.9231364231</v>
       </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
         <v>11083.6993396785</v>
       </c>
-      <c r="O15" t="n">
+      <c r="R15" t="n">
         <v>9623.40702603619</v>
       </c>
-      <c r="P15" t="n">
+      <c r="S15" t="n">
         <v>14290.9638208016</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="T15" t="n">
         <v>10877.8061913683</v>
       </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>9448.70980928812</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
+        <v>13433.0757028423</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11083.6993396785</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9623.40702603619</v>
+      </c>
+      <c r="Y15" t="n">
         <v>18320.8926941301</v>
       </c>
-      <c r="T15" t="n">
+      <c r="Z15" t="n">
         <v>14007.9977213874</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AA15" t="n">
         <v>12175.9084519744</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AB15" t="n">
         <v>19354.5617371841</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AC15" t="n">
         <v>14690.219289803</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AD15" t="n">
         <v>12754.7631160846</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AE15" t="n">
         <v>18941.0941199625</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AF15" t="n">
         <v>14417.3306624368</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AG15" t="n">
         <v>12523.2212504405</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17804.058172603</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>14690.219289803</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12754.7631160846</v>
       </c>
     </row>
     <row r="16">
@@ -1698,58 +2130,85 @@
         <v>13155.1890007137</v>
       </c>
       <c r="J16" t="n">
+        <v>18702.5163539338</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15431.5417219425</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13398.4153195028</v>
+      </c>
+      <c r="M16" t="n">
         <v>43545.494583558</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>33294.5123955998</v>
       </c>
-      <c r="L16" t="n">
+      <c r="O16" t="n">
         <v>28939.962937244</v>
       </c>
-      <c r="M16" t="n">
+      <c r="P16" t="n">
         <v>46002.3415542257</v>
       </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
         <v>34916.0313962404</v>
       </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
         <v>30315.7972408179</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
         <v>45019.6027659586</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="T16" t="n">
         <v>34267.4237959842</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>29765.4635193883</v>
       </c>
-      <c r="S16" t="n">
+      <c r="V16" t="n">
+        <v>42317.0710982241</v>
+      </c>
+      <c r="W16" t="n">
+        <v>34916.0313962404</v>
+      </c>
+      <c r="X16" t="n">
+        <v>30315.7972408179</v>
+      </c>
+      <c r="Y16" t="n">
         <v>57714.7435085471</v>
       </c>
-      <c r="T16" t="n">
+      <c r="Z16" t="n">
         <v>44128.198830465</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AA16" t="n">
         <v>38356.7244796103</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AB16" t="n">
         <v>60971.0228115585</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AC16" t="n">
         <v>46277.3431704525</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AD16" t="n">
         <v>40180.2408892967</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AE16" t="n">
         <v>59668.5110903539</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AF16" t="n">
         <v>45417.6854344575</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AG16" t="n">
         <v>39450.8343254221</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>56086.6038570414</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>46277.3431704525</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>40180.2408892967</v>
       </c>
     </row>
     <row r="17">
@@ -1781,58 +2240,85 @@
         <v>3405.2941554981</v>
       </c>
       <c r="J17" t="n">
+        <v>4841.25082731255</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3994.5407727099</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3468.25464673778</v>
+      </c>
+      <c r="M17" t="n">
         <v>11271.9945107303</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>8618.47051112256</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
         <v>7491.27106004953</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>11907.9630726197</v>
       </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
         <v>9038.20976196959</v>
       </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
         <v>7847.41345470762</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
         <v>11653.5756478639</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="T17" t="n">
         <v>8870.31406163078</v>
       </c>
-      <c r="R17" t="n">
+      <c r="U17" t="n">
         <v>7704.95649684439</v>
       </c>
-      <c r="S17" t="n">
+      <c r="V17" t="n">
+        <v>10954.0102297855</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9038.20976196959</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7847.41345470762</v>
+      </c>
+      <c r="Y17" t="n">
         <v>14939.7837419945</v>
       </c>
-      <c r="T17" t="n">
+      <c r="Z17" t="n">
         <v>11422.8307599296</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AA17" t="n">
         <v>9928.85238573018</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AB17" t="n">
         <v>15782.6898286051</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AC17" t="n">
         <v>11979.1487770926</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AD17" t="n">
         <v>10400.8797942321</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AE17" t="n">
         <v>15445.5273939608</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AF17" t="n">
         <v>11756.6215702274</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AG17" t="n">
         <v>10212.0688308313</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14518.3306986892</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11979.1487770926</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10400.8797942321</v>
       </c>
     </row>
     <row r="18">
@@ -1864,58 +2350,85 @@
         <v>10843.1734951387</v>
       </c>
       <c r="J18" t="n">
+        <v>15415.5618448636</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12719.4587762605</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11043.6529540861</v>
+      </c>
+      <c r="M18" t="n">
         <v>35892.4035736411</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>27443.0245222587</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>23853.7841648946</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>37917.4613628154</v>
       </c>
-      <c r="N18" t="n">
+      <c r="Q18" t="n">
         <v>28779.5626631137</v>
       </c>
-      <c r="O18" t="n">
+      <c r="R18" t="n">
         <v>24987.8165268322</v>
       </c>
-      <c r="P18" t="n">
+      <c r="S18" t="n">
         <v>37107.4382471457</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
         <v>28244.9474067717</v>
       </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
         <v>24534.2035820571</v>
       </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
+        <v>34879.874679054</v>
+      </c>
+      <c r="W18" t="n">
+        <v>28779.5626631137</v>
+      </c>
+      <c r="X18" t="n">
+        <v>24987.8165268322</v>
+      </c>
+      <c r="Y18" t="n">
         <v>47571.4166521403</v>
       </c>
-      <c r="T18" t="n">
+      <c r="Z18" t="n">
         <v>36372.6979460917</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AA18" t="n">
         <v>31615.5562808777</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AB18" t="n">
         <v>50255.4070858214</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AC18" t="n">
         <v>38144.1316323212</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AD18" t="n">
         <v>33118.5909237391</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AE18" t="n">
         <v>49181.8109123489</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AF18" t="n">
         <v>37435.5581578294</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AG18" t="n">
         <v>32517.3770665945</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>46229.4214352998</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>38144.1316323212</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>33118.5909237391</v>
       </c>
     </row>
     <row r="19">
@@ -1947,58 +2460,85 @@
         <v>31.4263212561988</v>
       </c>
       <c r="J19" t="n">
+        <v>42.1804438784503</v>
+      </c>
+      <c r="K19" t="n">
+        <v>36.1653660398455</v>
+      </c>
+      <c r="L19" t="n">
+        <v>31.7383642740051</v>
+      </c>
+      <c r="M19" t="n">
         <v>97.0123505213027</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>79.7466081373848</v>
       </c>
-      <c r="L19" t="n">
+      <c r="O19" t="n">
         <v>70.0453730852545</v>
       </c>
-      <c r="M19" t="n">
+      <c r="P19" t="n">
         <v>100.164228576214</v>
       </c>
-      <c r="N19" t="n">
+      <c r="Q19" t="n">
         <v>81.8268476536264</v>
       </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
         <v>71.810424796005</v>
       </c>
-      <c r="P19" t="n">
+      <c r="S19" t="n">
         <v>98.9034773542497</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
         <v>80.9947518471298</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
         <v>71.1044041117048</v>
       </c>
-      <c r="S19" t="n">
+      <c r="V19" t="n">
+        <v>95.436411493847</v>
+      </c>
+      <c r="W19" t="n">
+        <v>81.8268476536264</v>
+      </c>
+      <c r="X19" t="n">
+        <v>71.810424796005</v>
+      </c>
+      <c r="Y19" t="n">
         <v>128.579555752464</v>
       </c>
-      <c r="T19" t="n">
+      <c r="Z19" t="n">
         <v>105.695650007152</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AA19" t="n">
         <v>92.8376944319054</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AB19" t="n">
         <v>132.757034989991</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AC19" t="n">
         <v>108.45278630392</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AD19" t="n">
         <v>95.1770828049207</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AE19" t="n">
         <v>131.08604329498</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AF19" t="n">
         <v>107.349931785213</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AG19" t="n">
         <v>94.2413274557146</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>126.4908161337</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>108.45278630392</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>95.1770828049207</v>
       </c>
     </row>
     <row r="20">
@@ -2030,58 +2570,85 @@
         <v>3261.91334895081</v>
       </c>
       <c r="J20" t="n">
+        <v>4637.40868721518</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3826.34958228001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3322.2228721383</v>
+      </c>
+      <c r="M20" t="n">
         <v>10797.3842155416</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>8255.58754223319</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>7175.84912067902</v>
       </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>11406.5751537726</v>
       </c>
-      <c r="N20" t="n">
+      <c r="Q20" t="n">
         <v>8657.65356146561</v>
       </c>
-      <c r="O20" t="n">
+      <c r="R20" t="n">
         <v>7516.99604608836</v>
       </c>
-      <c r="P20" t="n">
+      <c r="S20" t="n">
         <v>11162.8987784802</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
         <v>8496.82715377264</v>
       </c>
-      <c r="R20" t="n">
+      <c r="U20" t="n">
         <v>7380.53727592462</v>
       </c>
-      <c r="S20" t="n">
+      <c r="V20" t="n">
+        <v>10492.7887464261</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8657.65356146561</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7516.99604608836</v>
+      </c>
+      <c r="Y20" t="n">
         <v>14310.7402160158</v>
       </c>
-      <c r="T20" t="n">
+      <c r="Z20" t="n">
         <v>10941.8694647747</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AA20" t="n">
         <v>9510.79544317312</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AB20" t="n">
         <v>15118.1555200322</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AC20" t="n">
         <v>11474.7635654256</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AD20" t="n">
         <v>9962.94801342233</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AE20" t="n">
         <v>14795.1893984256</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AF20" t="n">
         <v>11261.6059251652</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AG20" t="n">
         <v>9782.08698532265</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13907.0325640075</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11474.7635654256</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9962.94801342233</v>
       </c>
     </row>
     <row r="21">
@@ -2164,6 +2731,33 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">MI_SA_2015</t>
   </si>
@@ -41,15 +41,6 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_Precip_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">MI_SA_2070</t>
   </si>
   <si>
@@ -77,15 +68,6 @@
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_Precip_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2070</t>
-  </si>
-  <si>
     <t xml:space="preserve">MI_SA_2150</t>
   </si>
   <si>
@@ -111,15 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_Precip_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2150</t>
   </si>
 </sst>
 </file>
@@ -533,33 +506,6 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -641,33 +587,6 @@
         <v>35500</v>
       </c>
       <c r="AA2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="AJ2" t="n">
         <v>35500</v>
       </c>
     </row>
@@ -700,85 +619,58 @@
         <v>7301.87807749672</v>
       </c>
       <c r="J3" t="n">
-        <v>9656.69869363471</v>
+        <v>13646.2208558363</v>
       </c>
       <c r="K3" t="n">
-        <v>8362.72934598984</v>
+        <v>11102.5652883084</v>
       </c>
       <c r="L3" t="n">
-        <v>7358.88511868667</v>
+        <v>9737.94320272476</v>
       </c>
       <c r="M3" t="n">
-        <v>13646.2208558363</v>
+        <v>14137.4848066464</v>
       </c>
       <c r="N3" t="n">
-        <v>11102.5652883084</v>
+        <v>11426.7994958431</v>
       </c>
       <c r="O3" t="n">
-        <v>9737.94320272476</v>
+        <v>10013.0510151784</v>
       </c>
       <c r="P3" t="n">
-        <v>14137.4848066464</v>
+        <v>13940.9792263223</v>
       </c>
       <c r="Q3" t="n">
-        <v>11426.7994958431</v>
+        <v>11297.1058128292</v>
       </c>
       <c r="R3" t="n">
-        <v>10013.0510151784</v>
+        <v>9903.00789019696</v>
       </c>
       <c r="S3" t="n">
-        <v>13940.9792263223</v>
+        <v>22933.1022847507</v>
       </c>
       <c r="T3" t="n">
-        <v>11297.1058128292</v>
+        <v>18658.3720188732</v>
       </c>
       <c r="U3" t="n">
-        <v>9903.00789019696</v>
+        <v>16365.0617903981</v>
       </c>
       <c r="V3" t="n">
-        <v>13400.5888804312</v>
+        <v>23758.6939670018</v>
       </c>
       <c r="W3" t="n">
-        <v>11426.7994958431</v>
+        <v>19203.2625291589</v>
       </c>
       <c r="X3" t="n">
-        <v>10013.0510151784</v>
+        <v>16827.3931324587</v>
       </c>
       <c r="Y3" t="n">
-        <v>22933.1022847507</v>
+        <v>23428.4572941014</v>
       </c>
       <c r="Z3" t="n">
-        <v>18658.3720188732</v>
+        <v>18985.3063250446</v>
       </c>
       <c r="AA3" t="n">
-        <v>16365.0617903981</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23758.6939670018</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19203.2625291589</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>16827.3931324587</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23428.4572941014</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>18985.3063250446</v>
-      </c>
-      <c r="AG3" t="n">
         <v>16642.4605956345</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>22520.3064436252</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19203.2625291589</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>16827.3931324587</v>
       </c>
     </row>
     <row r="4">
@@ -810,85 +702,58 @@
         <v>2519.49786699567</v>
       </c>
       <c r="J4" t="n">
-        <v>3332.02383039153</v>
+        <v>4708.600167509</v>
       </c>
       <c r="K4" t="n">
-        <v>2885.54239414346</v>
+        <v>3830.91709628532</v>
       </c>
       <c r="L4" t="n">
-        <v>2539.16802817304</v>
+        <v>3360.05707953442</v>
       </c>
       <c r="M4" t="n">
-        <v>4708.600167509</v>
+        <v>4878.10977353932</v>
       </c>
       <c r="N4" t="n">
-        <v>3830.91709628532</v>
+        <v>3942.79343626534</v>
       </c>
       <c r="O4" t="n">
-        <v>3360.05707953442</v>
+        <v>3454.9824589114</v>
       </c>
       <c r="P4" t="n">
-        <v>4878.10977353932</v>
+        <v>4810.30593112719</v>
       </c>
       <c r="Q4" t="n">
-        <v>3942.79343626534</v>
+        <v>3898.04290027333</v>
       </c>
       <c r="R4" t="n">
-        <v>3454.9824589114</v>
+        <v>3417.01230716061</v>
       </c>
       <c r="S4" t="n">
-        <v>4810.30593112719</v>
+        <v>7913.01931869994</v>
       </c>
       <c r="T4" t="n">
-        <v>3898.04290027333</v>
+        <v>6438.03251769427</v>
       </c>
       <c r="U4" t="n">
-        <v>3417.01230716061</v>
+        <v>5646.73058582428</v>
       </c>
       <c r="V4" t="n">
-        <v>4623.84536449384</v>
+        <v>8197.88801417314</v>
       </c>
       <c r="W4" t="n">
-        <v>3942.79343626534</v>
+        <v>6626.04585670658</v>
       </c>
       <c r="X4" t="n">
-        <v>3454.9824589114</v>
+        <v>5806.25705528927</v>
       </c>
       <c r="Y4" t="n">
-        <v>7913.01931869994</v>
+        <v>8083.94053598386</v>
       </c>
       <c r="Z4" t="n">
-        <v>6438.03251769427</v>
+        <v>6550.84052110166</v>
       </c>
       <c r="AA4" t="n">
-        <v>5646.73058582428</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8197.88801417314</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6626.04585670658</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5806.25705528927</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>8083.94053598386</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6550.84052110166</v>
-      </c>
-      <c r="AG4" t="n">
         <v>5742.44646750327</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7770.58497096334</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6626.04585670658</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5806.25705528927</v>
       </c>
     </row>
     <row r="5">
@@ -920,85 +785,58 @@
         <v>376.039045641675</v>
       </c>
       <c r="J5" t="n">
-        <v>531.314206370944</v>
+        <v>1347.16511820635</v>
       </c>
       <c r="K5" t="n">
-        <v>440.186456348601</v>
+        <v>1038.04382759717</v>
       </c>
       <c r="L5" t="n">
-        <v>382.636857876013</v>
+        <v>903.327315776539</v>
       </c>
       <c r="M5" t="n">
-        <v>1347.16511820635</v>
+        <v>1419.83377603491</v>
       </c>
       <c r="N5" t="n">
-        <v>1038.04382759717</v>
+        <v>1086.00514176402</v>
       </c>
       <c r="O5" t="n">
-        <v>903.327315776539</v>
+        <v>944.021764160532</v>
       </c>
       <c r="P5" t="n">
-        <v>1419.83377603491</v>
+        <v>1390.76631290348</v>
       </c>
       <c r="Q5" t="n">
-        <v>1086.00514176402</v>
+        <v>1066.82061609728</v>
       </c>
       <c r="R5" t="n">
-        <v>944.021764160532</v>
+        <v>927.743984806935</v>
       </c>
       <c r="S5" t="n">
-        <v>1390.76631290348</v>
+        <v>2412.68520237153</v>
       </c>
       <c r="T5" t="n">
-        <v>1066.82061609728</v>
+        <v>1859.06905427549</v>
       </c>
       <c r="U5" t="n">
-        <v>927.743984806935</v>
+        <v>1617.80053403834</v>
       </c>
       <c r="V5" t="n">
-        <v>1310.83078929207</v>
+        <v>2542.83004731273</v>
       </c>
       <c r="W5" t="n">
-        <v>1086.00514176402</v>
+        <v>1944.96465193669</v>
       </c>
       <c r="X5" t="n">
-        <v>944.021764160532</v>
+        <v>1690.68164720541</v>
       </c>
       <c r="Y5" t="n">
-        <v>2412.68520237153</v>
+        <v>2490.77210933625</v>
       </c>
       <c r="Z5" t="n">
-        <v>1859.06905427549</v>
+        <v>1910.60641287221</v>
       </c>
       <c r="AA5" t="n">
-        <v>1617.80053403834</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2542.83004731273</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1944.96465193669</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1690.68164720541</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2490.77210933625</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1910.60641287221</v>
-      </c>
-      <c r="AG5" t="n">
         <v>1661.52920193858</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2347.61277990093</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1944.96465193669</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1690.68164720541</v>
       </c>
     </row>
     <row r="6">
@@ -1030,85 +868,58 @@
         <v>263.227331949173</v>
       </c>
       <c r="J6" t="n">
-        <v>371.919944459661</v>
+        <v>943.015582744444</v>
       </c>
       <c r="K6" t="n">
-        <v>308.130519444021</v>
+        <v>726.630679318022</v>
       </c>
       <c r="L6" t="n">
-        <v>267.845800513209</v>
+        <v>632.329121043577</v>
       </c>
       <c r="M6" t="n">
-        <v>943.015582744444</v>
+        <v>993.883643224435</v>
       </c>
       <c r="N6" t="n">
-        <v>726.630679318022</v>
+        <v>760.203599234816</v>
       </c>
       <c r="O6" t="n">
-        <v>632.329121043577</v>
+        <v>660.815234912372</v>
       </c>
       <c r="P6" t="n">
-        <v>993.883643224435</v>
+        <v>973.536419032438</v>
       </c>
       <c r="Q6" t="n">
-        <v>760.203599234816</v>
+        <v>746.774431268098</v>
       </c>
       <c r="R6" t="n">
-        <v>660.815234912372</v>
+        <v>649.420789364854</v>
       </c>
       <c r="S6" t="n">
-        <v>973.536419032438</v>
+        <v>1688.87964166007</v>
       </c>
       <c r="T6" t="n">
-        <v>746.774431268098</v>
+        <v>1301.34833799284</v>
       </c>
       <c r="U6" t="n">
-        <v>649.420789364854</v>
+        <v>1132.46037382684</v>
       </c>
       <c r="V6" t="n">
-        <v>917.581552504448</v>
+        <v>1779.98103311891</v>
       </c>
       <c r="W6" t="n">
-        <v>760.203599234816</v>
+        <v>1361.47525635568</v>
       </c>
       <c r="X6" t="n">
-        <v>660.815234912372</v>
+        <v>1183.47715304379</v>
       </c>
       <c r="Y6" t="n">
-        <v>1688.87964166007</v>
+        <v>1743.54047653538</v>
       </c>
       <c r="Z6" t="n">
-        <v>1301.34833799284</v>
+        <v>1337.42448901055</v>
       </c>
       <c r="AA6" t="n">
-        <v>1132.46037382684</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1779.98103311891</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1361.47525635568</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1183.47715304379</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1743.54047653538</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1337.42448901055</v>
-      </c>
-      <c r="AG6" t="n">
         <v>1163.07044135701</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1643.32894593065</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1361.47525635568</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1183.47715304379</v>
       </c>
     </row>
     <row r="7">
@@ -1140,85 +951,58 @@
         <v>906.671921158262</v>
       </c>
       <c r="J7" t="n">
-        <v>1281.05758647216</v>
+        <v>3248.16478500864</v>
       </c>
       <c r="K7" t="n">
-        <v>1061.33845586274</v>
+        <v>2502.83900653985</v>
       </c>
       <c r="L7" t="n">
-        <v>922.579979545498</v>
+        <v>2178.02252803899</v>
       </c>
       <c r="M7" t="n">
-        <v>3248.16478500864</v>
+        <v>3423.37699332861</v>
       </c>
       <c r="N7" t="n">
-        <v>2502.83900653985</v>
+        <v>2618.47906403103</v>
       </c>
       <c r="O7" t="n">
-        <v>2178.02252803899</v>
+        <v>2276.14136469817</v>
       </c>
       <c r="P7" t="n">
-        <v>3423.37699332861</v>
+        <v>3353.29211000062</v>
       </c>
       <c r="Q7" t="n">
-        <v>2618.47906403103</v>
+        <v>2572.22304103456</v>
       </c>
       <c r="R7" t="n">
-        <v>2276.14136469817</v>
+        <v>2236.8938300345</v>
       </c>
       <c r="S7" t="n">
-        <v>3353.29211000062</v>
+        <v>5817.25209905136</v>
       </c>
       <c r="T7" t="n">
-        <v>2572.22304103456</v>
+        <v>4482.42205308646</v>
       </c>
       <c r="U7" t="n">
-        <v>2236.8938300345</v>
+        <v>3900.69684318133</v>
       </c>
       <c r="V7" t="n">
-        <v>3160.55868084866</v>
+        <v>6131.04578074293</v>
       </c>
       <c r="W7" t="n">
-        <v>2618.47906403103</v>
+        <v>4689.5258830029</v>
       </c>
       <c r="X7" t="n">
-        <v>2276.14136469817</v>
+        <v>4076.4213049286</v>
       </c>
       <c r="Y7" t="n">
-        <v>5817.25209905136</v>
+        <v>6005.5283080663</v>
       </c>
       <c r="Z7" t="n">
-        <v>4482.42205308646</v>
+        <v>4606.68435103632</v>
       </c>
       <c r="AA7" t="n">
-        <v>3900.69684318133</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6131.04578074293</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>4689.5258830029</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>4076.4213049286</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>6005.5283080663</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>4606.68435103632</v>
-      </c>
-      <c r="AG7" t="n">
         <v>4006.13152022969</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>5660.35525820558</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>4689.5258830029</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>4076.4213049286</v>
       </c>
     </row>
     <row r="8">
@@ -1250,85 +1034,58 @@
         <v>1539.6931409418</v>
       </c>
       <c r="J8" t="n">
-        <v>2036.23678523927</v>
+        <v>2877.47788014439</v>
       </c>
       <c r="K8" t="n">
-        <v>1763.38701864322</v>
+        <v>2341.11600328548</v>
       </c>
       <c r="L8" t="n">
-        <v>1551.71379499463</v>
+        <v>2053.36821527104</v>
       </c>
       <c r="M8" t="n">
-        <v>2877.47788014439</v>
+        <v>2981.06708382959</v>
       </c>
       <c r="N8" t="n">
-        <v>2341.11600328548</v>
+        <v>2409.48487771771</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.36821527104</v>
+        <v>2111.37816933475</v>
       </c>
       <c r="P8" t="n">
-        <v>2981.06708382959</v>
+        <v>2939.63140235551</v>
       </c>
       <c r="Q8" t="n">
-        <v>2409.48487771771</v>
+        <v>2382.13732794481</v>
       </c>
       <c r="R8" t="n">
-        <v>2111.37816933475</v>
+        <v>2088.17418770926</v>
       </c>
       <c r="S8" t="n">
-        <v>2939.63140235551</v>
+        <v>4835.73402809441</v>
       </c>
       <c r="T8" t="n">
-        <v>2382.13732794481</v>
+        <v>3934.35320525761</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.17418770926</v>
+        <v>3450.77980244817</v>
       </c>
       <c r="V8" t="n">
-        <v>2825.68327830179</v>
+        <v>5009.82045310581</v>
       </c>
       <c r="W8" t="n">
-        <v>2409.48487771771</v>
+        <v>4049.25024576513</v>
       </c>
       <c r="X8" t="n">
-        <v>2111.37816933475</v>
+        <v>3548.26820045455</v>
       </c>
       <c r="Y8" t="n">
-        <v>4835.73402809441</v>
+        <v>4940.18588310125</v>
       </c>
       <c r="Z8" t="n">
-        <v>3934.35320525761</v>
+        <v>4003.29142956212</v>
       </c>
       <c r="AA8" t="n">
-        <v>3450.77980244817</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5009.82045310581</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>4049.25024576513</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3548.26820045455</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>4940.18588310125</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>4003.29142956212</v>
-      </c>
-      <c r="AG8" t="n">
         <v>3509.272841252</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>4748.69081558871</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>4049.25024576513</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>3548.26820045455</v>
       </c>
     </row>
     <row r="9">
@@ -1360,85 +1117,58 @@
         <v>451.24685477001</v>
       </c>
       <c r="J9" t="n">
-        <v>637.577047645133</v>
+        <v>1616.59814184762</v>
       </c>
       <c r="K9" t="n">
-        <v>528.223747618322</v>
+        <v>1245.65259311661</v>
       </c>
       <c r="L9" t="n">
-        <v>459.164229451216</v>
+        <v>1083.99277893185</v>
       </c>
       <c r="M9" t="n">
-        <v>1616.59814184762</v>
+        <v>1703.80053124189</v>
       </c>
       <c r="N9" t="n">
-        <v>1245.65259311661</v>
+        <v>1303.20617011683</v>
       </c>
       <c r="O9" t="n">
-        <v>1083.99277893185</v>
+        <v>1132.82611699264</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.80053124189</v>
+        <v>1668.91957548418</v>
       </c>
       <c r="Q9" t="n">
-        <v>1303.20617011683</v>
+        <v>1280.18473931674</v>
       </c>
       <c r="R9" t="n">
-        <v>1132.82611699264</v>
+        <v>1113.29278176832</v>
       </c>
       <c r="S9" t="n">
-        <v>1668.91957548418</v>
+        <v>2895.22224284584</v>
       </c>
       <c r="T9" t="n">
-        <v>1280.18473931674</v>
+        <v>2230.88286513059</v>
       </c>
       <c r="U9" t="n">
-        <v>1113.29278176832</v>
+        <v>1941.36064084601</v>
       </c>
       <c r="V9" t="n">
-        <v>1572.99694715048</v>
+        <v>3051.39605677528</v>
       </c>
       <c r="W9" t="n">
-        <v>1303.20617011683</v>
+        <v>2333.95758232402</v>
       </c>
       <c r="X9" t="n">
-        <v>1132.82611699264</v>
+        <v>2028.81797664649</v>
       </c>
       <c r="Y9" t="n">
-        <v>2895.22224284584</v>
+        <v>2988.9265312035</v>
       </c>
       <c r="Z9" t="n">
-        <v>2230.88286513059</v>
+        <v>2292.72769544665</v>
       </c>
       <c r="AA9" t="n">
-        <v>1941.36064084601</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>3051.39605677528</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2333.95758232402</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2028.81797664649</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>2988.9265312035</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>2292.72769544665</v>
-      </c>
-      <c r="AG9" t="n">
         <v>1993.8350423263</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>2817.13533588112</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2333.95758232402</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>2028.81797664649</v>
       </c>
     </row>
     <row r="10">
@@ -1470,85 +1200,58 @@
         <v>62.6731742736126</v>
       </c>
       <c r="J10" t="n">
-        <v>88.5523677284907</v>
+        <v>224.527519701058</v>
       </c>
       <c r="K10" t="n">
-        <v>73.3644093914336</v>
+        <v>173.007304599529</v>
       </c>
       <c r="L10" t="n">
-        <v>63.7728096460022</v>
+        <v>150.554552629423</v>
       </c>
       <c r="M10" t="n">
-        <v>224.527519701058</v>
+        <v>236.638962672484</v>
       </c>
       <c r="N10" t="n">
-        <v>173.007304599529</v>
+        <v>181.00085696067</v>
       </c>
       <c r="O10" t="n">
-        <v>150.554552629423</v>
+        <v>157.336960693422</v>
       </c>
       <c r="P10" t="n">
-        <v>236.638962672484</v>
+        <v>231.794385483914</v>
       </c>
       <c r="Q10" t="n">
-        <v>181.00085696067</v>
+        <v>177.803436016214</v>
       </c>
       <c r="R10" t="n">
-        <v>157.336960693422</v>
+        <v>154.623997467822</v>
       </c>
       <c r="S10" t="n">
-        <v>231.794385483914</v>
+        <v>402.114200395255</v>
       </c>
       <c r="T10" t="n">
-        <v>177.803436016214</v>
+        <v>309.844842379249</v>
       </c>
       <c r="U10" t="n">
-        <v>154.623997467822</v>
+        <v>269.633422339723</v>
       </c>
       <c r="V10" t="n">
-        <v>218.471798215345</v>
+        <v>423.805007885456</v>
       </c>
       <c r="W10" t="n">
-        <v>181.00085696067</v>
+        <v>324.160775322781</v>
       </c>
       <c r="X10" t="n">
-        <v>157.336960693422</v>
+        <v>281.780274534235</v>
       </c>
       <c r="Y10" t="n">
-        <v>402.114200395255</v>
+        <v>415.128684889376</v>
       </c>
       <c r="Z10" t="n">
-        <v>309.844842379249</v>
+        <v>318.434402145368</v>
       </c>
       <c r="AA10" t="n">
-        <v>269.633422339723</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>423.805007885456</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>324.160775322781</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>281.780274534235</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>415.128684889376</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>318.434402145368</v>
-      </c>
-      <c r="AG10" t="n">
         <v>276.92153365643</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>391.268796650155</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>324.160775322781</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>281.780274534235</v>
       </c>
     </row>
     <row r="11">
@@ -1580,85 +1283,58 @@
         <v>35943.5745435348</v>
       </c>
       <c r="J11" t="n">
-        <v>50876.3870035494</v>
+        <v>71510.1964879334</v>
       </c>
       <c r="K11" t="n">
-        <v>42100.5149939979</v>
+        <v>54978.0086897061</v>
       </c>
       <c r="L11" t="n">
-        <v>36584.0119553643</v>
+        <v>47826.9890409128</v>
       </c>
       <c r="M11" t="n">
-        <v>71510.1964879334</v>
+        <v>75419.0165501976</v>
       </c>
       <c r="N11" t="n">
-        <v>54978.0086897061</v>
+        <v>57557.8299308005</v>
       </c>
       <c r="O11" t="n">
-        <v>47826.9890409128</v>
+        <v>50015.9282757807</v>
       </c>
       <c r="P11" t="n">
-        <v>75419.0165501976</v>
+        <v>73855.4885252919</v>
       </c>
       <c r="Q11" t="n">
-        <v>57557.8299308005</v>
+        <v>56525.9014343627</v>
       </c>
       <c r="R11" t="n">
-        <v>50015.9282757807</v>
+        <v>49140.3525818335</v>
       </c>
       <c r="S11" t="n">
-        <v>73855.4885252919</v>
+        <v>98589.1392276515</v>
       </c>
       <c r="T11" t="n">
-        <v>56525.9014343627</v>
+        <v>75796.6670401063</v>
       </c>
       <c r="U11" t="n">
-        <v>49140.3525818335</v>
+        <v>65937.7531173411</v>
       </c>
       <c r="V11" t="n">
-        <v>69555.7864568014</v>
+        <v>103978.121837976</v>
       </c>
       <c r="W11" t="n">
-        <v>57557.8299308005</v>
+        <v>79353.3955629208</v>
       </c>
       <c r="X11" t="n">
-        <v>50015.9282757807</v>
+        <v>68955.5833791231</v>
       </c>
       <c r="Y11" t="n">
-        <v>98589.1392276515</v>
+        <v>101822.528793846</v>
       </c>
       <c r="Z11" t="n">
-        <v>75796.6670401063</v>
+        <v>77930.704153795</v>
       </c>
       <c r="AA11" t="n">
-        <v>65937.7531173411</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>103978.121837976</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>79353.3955629208</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>68955.5833791231</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>101822.528793846</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>77930.704153795</v>
-      </c>
-      <c r="AG11" t="n">
         <v>67748.4512744103</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>95894.6479224889</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>79353.3955629208</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>68955.5833791231</v>
       </c>
     </row>
     <row r="12">
@@ -1690,85 +1366,58 @@
         <v>25111.8201382032</v>
       </c>
       <c r="J12" t="n">
-        <v>35544.5638320509</v>
+        <v>49960.2840022921</v>
       </c>
       <c r="K12" t="n">
-        <v>29413.3394822626</v>
+        <v>38410.1437685419</v>
       </c>
       <c r="L12" t="n">
-        <v>25559.2589168967</v>
+        <v>33414.1153683127</v>
       </c>
       <c r="M12" t="n">
-        <v>49960.2840022921</v>
+        <v>52691.1639329259</v>
       </c>
       <c r="N12" t="n">
-        <v>38410.1437685419</v>
+        <v>40212.5245227601</v>
       </c>
       <c r="O12" t="n">
-        <v>33414.1153683127</v>
+        <v>34943.4081294676</v>
       </c>
       <c r="P12" t="n">
-        <v>52691.1639329259</v>
+        <v>51598.8119606724</v>
       </c>
       <c r="Q12" t="n">
-        <v>40212.5245227601</v>
+        <v>39491.5722210728</v>
       </c>
       <c r="R12" t="n">
-        <v>34943.4081294676</v>
+        <v>34331.6910250056</v>
       </c>
       <c r="S12" t="n">
-        <v>51598.8119606724</v>
+        <v>68878.868151147</v>
       </c>
       <c r="T12" t="n">
-        <v>39491.5722210728</v>
+        <v>52955.0077853564</v>
       </c>
       <c r="U12" t="n">
-        <v>34331.6910250056</v>
+        <v>46067.1209702417</v>
       </c>
       <c r="V12" t="n">
-        <v>48594.8440369752</v>
+        <v>72643.8571305953</v>
       </c>
       <c r="W12" t="n">
-        <v>40212.5245227601</v>
+        <v>55439.9005117923</v>
       </c>
       <c r="X12" t="n">
-        <v>34943.4081294676</v>
+        <v>48175.5147987328</v>
       </c>
       <c r="Y12" t="n">
-        <v>68878.868151147</v>
+        <v>71137.861538816</v>
       </c>
       <c r="Z12" t="n">
-        <v>52955.0077853564</v>
+        <v>54445.9434212179</v>
       </c>
       <c r="AA12" t="n">
-        <v>46067.1209702417</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>72643.8571305953</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>55439.9005117923</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>48175.5147987328</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>71137.861538816</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>54445.9434212179</v>
-      </c>
-      <c r="AG12" t="n">
         <v>47332.1572673363</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>66996.3736614229</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>55439.9005117923</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>48175.5147987328</v>
       </c>
     </row>
     <row r="13">
@@ -1800,85 +1449,58 @@
         <v>4803.25701933416</v>
       </c>
       <c r="J13" t="n">
-        <v>6828.71169326191</v>
+        <v>15899.4448888195</v>
       </c>
       <c r="K13" t="n">
-        <v>5634.40487940133</v>
+        <v>12156.5794577939</v>
       </c>
       <c r="L13" t="n">
-        <v>4892.06444908277</v>
+        <v>10566.634968912</v>
       </c>
       <c r="M13" t="n">
-        <v>15899.4448888195</v>
+        <v>16796.4952813794</v>
       </c>
       <c r="N13" t="n">
-        <v>12156.5794577939</v>
+        <v>12748.6327168834</v>
       </c>
       <c r="O13" t="n">
-        <v>10566.634968912</v>
+        <v>11068.9831887455</v>
       </c>
       <c r="P13" t="n">
-        <v>16796.4952813794</v>
+        <v>16437.6751243554</v>
       </c>
       <c r="Q13" t="n">
-        <v>12748.6327168834</v>
+        <v>12511.8114132476</v>
       </c>
       <c r="R13" t="n">
-        <v>11068.9831887455</v>
+        <v>10868.0439008121</v>
       </c>
       <c r="S13" t="n">
-        <v>16437.6751243554</v>
+        <v>21072.9581202869</v>
       </c>
       <c r="T13" t="n">
-        <v>12511.8114132476</v>
+        <v>16112.2033876902</v>
       </c>
       <c r="U13" t="n">
-        <v>10868.0439008121</v>
+        <v>14004.9075756615</v>
       </c>
       <c r="V13" t="n">
-        <v>15450.9196925396</v>
+        <v>22261.8993371903</v>
       </c>
       <c r="W13" t="n">
-        <v>12748.6327168834</v>
+        <v>16896.9045908464</v>
       </c>
       <c r="X13" t="n">
-        <v>11068.9831887455</v>
+        <v>14670.7146571274</v>
       </c>
       <c r="Y13" t="n">
-        <v>21072.9581202869</v>
+        <v>21786.3228504289</v>
       </c>
       <c r="Z13" t="n">
-        <v>16112.2033876902</v>
+        <v>16583.0241095839</v>
       </c>
       <c r="AA13" t="n">
-        <v>14004.9075756615</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>22261.8993371903</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>16896.9045908464</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14670.7146571274</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21786.3228504289</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16583.0241095839</v>
-      </c>
-      <c r="AG13" t="n">
         <v>14404.391824541</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>20478.4875118353</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>16896.9045908464</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>14670.7146571274</v>
       </c>
     </row>
     <row r="14">
@@ -1910,85 +1532,58 @@
         <v>5502.23845125219</v>
       </c>
       <c r="J14" t="n">
-        <v>7822.4421262366</v>
+        <v>18213.1700778642</v>
       </c>
       <c r="K14" t="n">
-        <v>6454.33693274705</v>
+        <v>13925.6339311296</v>
       </c>
       <c r="L14" t="n">
-        <v>5603.96935025526</v>
+        <v>12104.3169233432</v>
       </c>
       <c r="M14" t="n">
-        <v>18213.1700778642</v>
+        <v>19240.7613857592</v>
       </c>
       <c r="N14" t="n">
-        <v>13925.6339311296</v>
+        <v>14603.8441943403</v>
       </c>
       <c r="O14" t="n">
-        <v>12104.3169233432</v>
+        <v>12679.7680557644</v>
       </c>
       <c r="P14" t="n">
-        <v>19240.7613857592</v>
+        <v>18829.7248626012</v>
       </c>
       <c r="Q14" t="n">
-        <v>14603.8441943403</v>
+        <v>14332.5600890561</v>
       </c>
       <c r="R14" t="n">
-        <v>12679.7680557644</v>
+        <v>12449.5876027959</v>
       </c>
       <c r="S14" t="n">
-        <v>18829.7248626012</v>
+        <v>24139.5453094332</v>
       </c>
       <c r="T14" t="n">
-        <v>14332.5600890561</v>
+        <v>18456.8897015705</v>
       </c>
       <c r="U14" t="n">
-        <v>12449.5876027959</v>
+        <v>16042.9351706272</v>
       </c>
       <c r="V14" t="n">
-        <v>17699.3744239166</v>
+        <v>25501.5040914829</v>
       </c>
       <c r="W14" t="n">
-        <v>14603.8441943403</v>
+        <v>19355.7824977233</v>
       </c>
       <c r="X14" t="n">
-        <v>12679.7680557644</v>
+        <v>16805.632088575</v>
       </c>
       <c r="Y14" t="n">
-        <v>24139.5453094332</v>
+        <v>24956.720578663</v>
       </c>
       <c r="Z14" t="n">
-        <v>18456.8897015705</v>
+        <v>18996.2253792622</v>
       </c>
       <c r="AA14" t="n">
-        <v>16042.9351706272</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>25501.5040914829</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>19355.7824977233</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16805.632088575</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>24956.720578663</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>18996.2253792622</v>
-      </c>
-      <c r="AG14" t="n">
         <v>16500.5533213959</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23458.5659184083</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19355.7824977233</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>16805.632088575</v>
       </c>
     </row>
     <row r="15">
@@ -2020,85 +1615,58 @@
         <v>4175.96599068978</v>
       </c>
       <c r="J15" t="n">
-        <v>5936.90233033592</v>
+        <v>13823.0248473692</v>
       </c>
       <c r="K15" t="n">
-        <v>4898.56842127056</v>
+        <v>10568.9664689029</v>
       </c>
       <c r="L15" t="n">
-        <v>4253.17543521002</v>
+        <v>9186.66398416601</v>
       </c>
       <c r="M15" t="n">
-        <v>13823.0248473692</v>
+        <v>14602.9231364231</v>
       </c>
       <c r="N15" t="n">
-        <v>10568.9664689029</v>
+        <v>11083.6993396785</v>
       </c>
       <c r="O15" t="n">
-        <v>9186.66398416601</v>
+        <v>9623.40702603619</v>
       </c>
       <c r="P15" t="n">
-        <v>14602.9231364231</v>
+        <v>14290.9638208016</v>
       </c>
       <c r="Q15" t="n">
-        <v>11083.6993396785</v>
+        <v>10877.8061913683</v>
       </c>
       <c r="R15" t="n">
-        <v>9623.40702603619</v>
+        <v>9448.70980928812</v>
       </c>
       <c r="S15" t="n">
-        <v>14290.9638208016</v>
+        <v>18320.8926941301</v>
       </c>
       <c r="T15" t="n">
-        <v>10877.8061913683</v>
+        <v>14007.9977213874</v>
       </c>
       <c r="U15" t="n">
-        <v>9448.70980928812</v>
+        <v>12175.9084519744</v>
       </c>
       <c r="V15" t="n">
-        <v>13433.0757028423</v>
+        <v>19354.5617371841</v>
       </c>
       <c r="W15" t="n">
-        <v>11083.6993396785</v>
+        <v>14690.219289803</v>
       </c>
       <c r="X15" t="n">
-        <v>9623.40702603619</v>
+        <v>12754.7631160846</v>
       </c>
       <c r="Y15" t="n">
-        <v>18320.8926941301</v>
+        <v>18941.0941199625</v>
       </c>
       <c r="Z15" t="n">
-        <v>14007.9977213874</v>
+        <v>14417.3306624368</v>
       </c>
       <c r="AA15" t="n">
-        <v>12175.9084519744</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>19354.5617371841</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>14690.219289803</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12754.7631160846</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>18941.0941199625</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>14417.3306624368</v>
-      </c>
-      <c r="AG15" t="n">
         <v>12523.2212504405</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17804.058172603</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>14690.219289803</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12754.7631160846</v>
       </c>
     </row>
     <row r="16">
@@ -2130,85 +1698,58 @@
         <v>13155.1890007137</v>
       </c>
       <c r="J16" t="n">
-        <v>18702.5163539338</v>
+        <v>43545.494583558</v>
       </c>
       <c r="K16" t="n">
-        <v>15431.5417219425</v>
+        <v>33294.5123955998</v>
       </c>
       <c r="L16" t="n">
-        <v>13398.4153195028</v>
+        <v>28939.962937244</v>
       </c>
       <c r="M16" t="n">
-        <v>43545.494583558</v>
+        <v>46002.3415542257</v>
       </c>
       <c r="N16" t="n">
-        <v>33294.5123955998</v>
+        <v>34916.0313962404</v>
       </c>
       <c r="O16" t="n">
-        <v>28939.962937244</v>
+        <v>30315.7972408179</v>
       </c>
       <c r="P16" t="n">
-        <v>46002.3415542257</v>
+        <v>45019.6027659586</v>
       </c>
       <c r="Q16" t="n">
-        <v>34916.0313962404</v>
+        <v>34267.4237959842</v>
       </c>
       <c r="R16" t="n">
-        <v>30315.7972408179</v>
+        <v>29765.4635193883</v>
       </c>
       <c r="S16" t="n">
-        <v>45019.6027659586</v>
+        <v>57714.7435085471</v>
       </c>
       <c r="T16" t="n">
-        <v>34267.4237959842</v>
+        <v>44128.198830465</v>
       </c>
       <c r="U16" t="n">
-        <v>29765.4635193883</v>
+        <v>38356.7244796103</v>
       </c>
       <c r="V16" t="n">
-        <v>42317.0710982241</v>
+        <v>60971.0228115585</v>
       </c>
       <c r="W16" t="n">
-        <v>34916.0313962404</v>
+        <v>46277.3431704525</v>
       </c>
       <c r="X16" t="n">
-        <v>30315.7972408179</v>
+        <v>40180.2408892967</v>
       </c>
       <c r="Y16" t="n">
-        <v>57714.7435085471</v>
+        <v>59668.5110903539</v>
       </c>
       <c r="Z16" t="n">
-        <v>44128.198830465</v>
+        <v>45417.6854344575</v>
       </c>
       <c r="AA16" t="n">
-        <v>38356.7244796103</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>60971.0228115585</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>46277.3431704525</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>40180.2408892967</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>59668.5110903539</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>45417.6854344575</v>
-      </c>
-      <c r="AG16" t="n">
         <v>39450.8343254221</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>56086.6038570414</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>46277.3431704525</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>40180.2408892967</v>
       </c>
     </row>
     <row r="17">
@@ -2240,85 +1781,58 @@
         <v>3405.2941554981</v>
       </c>
       <c r="J17" t="n">
-        <v>4841.25082731255</v>
+        <v>11271.9945107303</v>
       </c>
       <c r="K17" t="n">
-        <v>3994.5407727099</v>
+        <v>8618.47051112256</v>
       </c>
       <c r="L17" t="n">
-        <v>3468.25464673778</v>
+        <v>7491.27106004953</v>
       </c>
       <c r="M17" t="n">
-        <v>11271.9945107303</v>
+        <v>11907.9630726197</v>
       </c>
       <c r="N17" t="n">
-        <v>8618.47051112256</v>
+        <v>9038.20976196959</v>
       </c>
       <c r="O17" t="n">
-        <v>7491.27106004953</v>
+        <v>7847.41345470762</v>
       </c>
       <c r="P17" t="n">
-        <v>11907.9630726197</v>
+        <v>11653.5756478639</v>
       </c>
       <c r="Q17" t="n">
-        <v>9038.20976196959</v>
+        <v>8870.31406163078</v>
       </c>
       <c r="R17" t="n">
-        <v>7847.41345470762</v>
+        <v>7704.95649684439</v>
       </c>
       <c r="S17" t="n">
-        <v>11653.5756478639</v>
+        <v>14939.7837419945</v>
       </c>
       <c r="T17" t="n">
-        <v>8870.31406163078</v>
+        <v>11422.8307599296</v>
       </c>
       <c r="U17" t="n">
-        <v>7704.95649684439</v>
+        <v>9928.85238573018</v>
       </c>
       <c r="V17" t="n">
-        <v>10954.0102297855</v>
+        <v>15782.6898286051</v>
       </c>
       <c r="W17" t="n">
-        <v>9038.20976196959</v>
+        <v>11979.1487770926</v>
       </c>
       <c r="X17" t="n">
-        <v>7847.41345470762</v>
+        <v>10400.8797942321</v>
       </c>
       <c r="Y17" t="n">
-        <v>14939.7837419945</v>
+        <v>15445.5273939608</v>
       </c>
       <c r="Z17" t="n">
-        <v>11422.8307599296</v>
+        <v>11756.6215702274</v>
       </c>
       <c r="AA17" t="n">
-        <v>9928.85238573018</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15782.6898286051</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11979.1487770926</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10400.8797942321</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15445.5273939608</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11756.6215702274</v>
-      </c>
-      <c r="AG17" t="n">
         <v>10212.0688308313</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>14518.3306986892</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>11979.1487770926</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10400.8797942321</v>
       </c>
     </row>
     <row r="18">
@@ -2350,85 +1864,58 @@
         <v>10843.1734951387</v>
       </c>
       <c r="J18" t="n">
-        <v>15415.5618448636</v>
+        <v>35892.4035736411</v>
       </c>
       <c r="K18" t="n">
-        <v>12719.4587762605</v>
+        <v>27443.0245222587</v>
       </c>
       <c r="L18" t="n">
-        <v>11043.6529540861</v>
+        <v>23853.7841648946</v>
       </c>
       <c r="M18" t="n">
-        <v>35892.4035736411</v>
+        <v>37917.4613628154</v>
       </c>
       <c r="N18" t="n">
-        <v>27443.0245222587</v>
+        <v>28779.5626631137</v>
       </c>
       <c r="O18" t="n">
-        <v>23853.7841648946</v>
+        <v>24987.8165268322</v>
       </c>
       <c r="P18" t="n">
-        <v>37917.4613628154</v>
+        <v>37107.4382471457</v>
       </c>
       <c r="Q18" t="n">
-        <v>28779.5626631137</v>
+        <v>28244.9474067717</v>
       </c>
       <c r="R18" t="n">
-        <v>24987.8165268322</v>
+        <v>24534.2035820571</v>
       </c>
       <c r="S18" t="n">
-        <v>37107.4382471457</v>
+        <v>47571.4166521403</v>
       </c>
       <c r="T18" t="n">
-        <v>28244.9474067717</v>
+        <v>36372.6979460917</v>
       </c>
       <c r="U18" t="n">
-        <v>24534.2035820571</v>
+        <v>31615.5562808777</v>
       </c>
       <c r="V18" t="n">
-        <v>34879.874679054</v>
+        <v>50255.4070858214</v>
       </c>
       <c r="W18" t="n">
-        <v>28779.5626631137</v>
+        <v>38144.1316323212</v>
       </c>
       <c r="X18" t="n">
-        <v>24987.8165268322</v>
+        <v>33118.5909237391</v>
       </c>
       <c r="Y18" t="n">
-        <v>47571.4166521403</v>
+        <v>49181.8109123489</v>
       </c>
       <c r="Z18" t="n">
-        <v>36372.6979460917</v>
+        <v>37435.5581578294</v>
       </c>
       <c r="AA18" t="n">
-        <v>31615.5562808777</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>50255.4070858214</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>38144.1316323212</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>33118.5909237391</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>49181.8109123489</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>37435.5581578294</v>
-      </c>
-      <c r="AG18" t="n">
         <v>32517.3770665945</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>46229.4214352998</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>38144.1316323212</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>33118.5909237391</v>
       </c>
     </row>
     <row r="19">
@@ -2460,85 +1947,58 @@
         <v>31.4263212561988</v>
       </c>
       <c r="J19" t="n">
-        <v>42.1804438784503</v>
+        <v>97.0123505213027</v>
       </c>
       <c r="K19" t="n">
-        <v>36.1653660398455</v>
+        <v>79.7466081373848</v>
       </c>
       <c r="L19" t="n">
-        <v>31.7383642740051</v>
+        <v>70.0453730852545</v>
       </c>
       <c r="M19" t="n">
-        <v>97.0123505213027</v>
+        <v>100.164228576214</v>
       </c>
       <c r="N19" t="n">
-        <v>79.7466081373848</v>
+        <v>81.8268476536264</v>
       </c>
       <c r="O19" t="n">
-        <v>70.0453730852545</v>
+        <v>71.810424796005</v>
       </c>
       <c r="P19" t="n">
-        <v>100.164228576214</v>
+        <v>98.9034773542497</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.8268476536264</v>
+        <v>80.9947518471298</v>
       </c>
       <c r="R19" t="n">
-        <v>71.810424796005</v>
+        <v>71.1044041117048</v>
       </c>
       <c r="S19" t="n">
-        <v>98.9034773542497</v>
+        <v>128.579555752464</v>
       </c>
       <c r="T19" t="n">
-        <v>80.9947518471298</v>
+        <v>105.695650007152</v>
       </c>
       <c r="U19" t="n">
-        <v>71.1044041117048</v>
+        <v>92.8376944319054</v>
       </c>
       <c r="V19" t="n">
-        <v>95.436411493847</v>
+        <v>132.757034989991</v>
       </c>
       <c r="W19" t="n">
-        <v>81.8268476536264</v>
+        <v>108.45278630392</v>
       </c>
       <c r="X19" t="n">
-        <v>71.810424796005</v>
+        <v>95.1770828049207</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.579555752464</v>
+        <v>131.08604329498</v>
       </c>
       <c r="Z19" t="n">
-        <v>105.695650007152</v>
+        <v>107.349931785213</v>
       </c>
       <c r="AA19" t="n">
-        <v>92.8376944319054</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>132.757034989991</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>108.45278630392</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>95.1770828049207</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>131.08604329498</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>107.349931785213</v>
-      </c>
-      <c r="AG19" t="n">
         <v>94.2413274557146</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>126.4908161337</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>108.45278630392</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>95.1770828049207</v>
       </c>
     </row>
     <row r="20">
@@ -2570,85 +2030,58 @@
         <v>3261.91334895081</v>
       </c>
       <c r="J20" t="n">
-        <v>4637.40868721518</v>
+        <v>10797.3842155416</v>
       </c>
       <c r="K20" t="n">
-        <v>3826.34958228001</v>
+        <v>8255.58754223319</v>
       </c>
       <c r="L20" t="n">
-        <v>3322.2228721383</v>
+        <v>7175.84912067902</v>
       </c>
       <c r="M20" t="n">
-        <v>10797.3842155416</v>
+        <v>11406.5751537726</v>
       </c>
       <c r="N20" t="n">
-        <v>8255.58754223319</v>
+        <v>8657.65356146561</v>
       </c>
       <c r="O20" t="n">
-        <v>7175.84912067902</v>
+        <v>7516.99604608836</v>
       </c>
       <c r="P20" t="n">
-        <v>11406.5751537726</v>
+        <v>11162.8987784802</v>
       </c>
       <c r="Q20" t="n">
-        <v>8657.65356146561</v>
+        <v>8496.82715377264</v>
       </c>
       <c r="R20" t="n">
-        <v>7516.99604608836</v>
+        <v>7380.53727592462</v>
       </c>
       <c r="S20" t="n">
-        <v>11162.8987784802</v>
+        <v>14310.7402160158</v>
       </c>
       <c r="T20" t="n">
-        <v>8496.82715377264</v>
+        <v>10941.8694647747</v>
       </c>
       <c r="U20" t="n">
-        <v>7380.53727592462</v>
+        <v>9510.79544317312</v>
       </c>
       <c r="V20" t="n">
-        <v>10492.7887464261</v>
+        <v>15118.1555200322</v>
       </c>
       <c r="W20" t="n">
-        <v>8657.65356146561</v>
+        <v>11474.7635654256</v>
       </c>
       <c r="X20" t="n">
-        <v>7516.99604608836</v>
+        <v>9962.94801342233</v>
       </c>
       <c r="Y20" t="n">
-        <v>14310.7402160158</v>
+        <v>14795.1893984256</v>
       </c>
       <c r="Z20" t="n">
-        <v>10941.8694647747</v>
+        <v>11261.6059251652</v>
       </c>
       <c r="AA20" t="n">
-        <v>9510.79544317312</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15118.1555200322</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11474.7635654256</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>9962.94801342233</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>14795.1893984256</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11261.6059251652</v>
-      </c>
-      <c r="AG20" t="n">
         <v>9782.08698532265</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>13907.0325640075</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11474.7635654256</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9962.94801342233</v>
       </c>
     </row>
     <row r="21">
@@ -2731,33 +2164,6 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
         <v>0</v>
       </c>
     </row>
